--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables.xlsx
@@ -20,6 +20,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="161">
   <si>
+    <t>process_water</t>
+  </si>
+  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -29,9 +32,6 @@
     <t>mixed_bioreactor_feed</t>
   </si>
   <si>
-    <t>process_water</t>
-  </si>
-  <si>
     <t>s1</t>
   </si>
   <si>
@@ -182,21 +182,21 @@
     <t>Tryptone</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>R101</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
-    <t>M102</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
     <t>H101</t>
   </si>
   <si>
@@ -428,79 +428,79 @@
     <t>T110</t>
   </si>
   <si>
+    <t>s.15</t>
+  </si>
+  <si>
+    <t>s.16</t>
+  </si>
+  <si>
+    <t>cooling_tower_makeup_water</t>
+  </si>
+  <si>
+    <t>evaporation_and_blowdown</t>
+  </si>
+  <si>
+    <t>CSL</t>
+  </si>
+  <si>
+    <t>s.18</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>recirculated_chilled_water</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>s.12</t>
+  </si>
+  <si>
+    <t>s.13</t>
+  </si>
+  <si>
+    <t>boiler_makeup_water</t>
+  </si>
+  <si>
+    <t>natural_gas</t>
+  </si>
+  <si>
+    <t>hexene</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>boiler_chemicals</t>
+  </si>
+  <si>
     <t>octene</t>
   </si>
   <si>
+    <t>emissions</t>
+  </si>
+  <si>
+    <t>decene</t>
+  </si>
+  <si>
     <t>rejected_water_and_blowdown</t>
   </si>
   <si>
     <t>ash_disposal</t>
   </si>
   <si>
-    <t>cooling_tower_makeup_water</t>
-  </si>
-  <si>
-    <t>s.15</t>
-  </si>
-  <si>
-    <t>s.16</t>
-  </si>
-  <si>
-    <t>evaporation_and_blowdown</t>
-  </si>
-  <si>
-    <t>s.18</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>s.12</t>
-  </si>
-  <si>
-    <t>recirculated_chilled_water</t>
-  </si>
-  <si>
-    <t>hexene</t>
-  </si>
-  <si>
-    <t>s.13</t>
-  </si>
-  <si>
     <t>glucose</t>
   </si>
   <si>
-    <t>CSL</t>
-  </si>
-  <si>
-    <t>boiler_makeup_water</t>
-  </si>
-  <si>
-    <t>natural_gas</t>
-  </si>
-  <si>
-    <t>lime</t>
-  </si>
-  <si>
-    <t>boiler_chemicals</t>
-  </si>
-  <si>
-    <t>DAP</t>
-  </si>
-  <si>
-    <t>decene</t>
-  </si>
-  <si>
-    <t>emissions</t>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>CWP</t>
   </si>
   <si>
     <t>BT</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>CWP</t>
   </si>
 </sst>
 </file>
@@ -919,13 +919,13 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -949,10 +949,10 @@
         <v>66</v>
       </c>
       <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
         <v>57</v>
-      </c>
-      <c r="N2" t="s">
-        <v>54</v>
       </c>
       <c r="O2" t="s">
         <v>67</v>
@@ -969,10 +969,10 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -981,22 +981,22 @@
         <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
         <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
         <v>59</v>
@@ -1022,43 +1022,43 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1066,49 +1066,49 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>31.08388922089659</v>
+        <v>369.5958033436227</v>
       </c>
       <c r="C5">
-        <v>0.6583206237384778</v>
+        <v>34.96110934797288</v>
       </c>
       <c r="D5">
-        <v>224.9457430000915</v>
+        <v>1.8484028878659</v>
       </c>
       <c r="E5">
-        <v>131.6323978512049</v>
+        <v>522.9346787415607</v>
       </c>
       <c r="F5">
-        <v>27.08287164924836</v>
+        <v>74.73774635886024</v>
       </c>
       <c r="G5">
-        <v>63.63705416176884</v>
+        <v>71.59173361848406</v>
       </c>
       <c r="H5">
-        <v>27.08287164924836</v>
+        <v>74.73774635886024</v>
       </c>
       <c r="I5">
-        <v>27.08287164924836</v>
+        <v>74.73774635886024</v>
       </c>
       <c r="J5">
-        <v>0.5623593202302924</v>
+        <v>1.307331682822092</v>
       </c>
       <c r="K5">
-        <v>1.316641247476956</v>
+        <v>3.6968057757318</v>
       </c>
       <c r="L5">
-        <v>0.05609814642362549</v>
+        <v>0.1568550741739992</v>
       </c>
       <c r="M5">
-        <v>224.9437280921169</v>
+        <v>522.9326731288369</v>
       </c>
       <c r="N5">
-        <v>193.8618537791949</v>
+        <v>487.9735312443925</v>
       </c>
       <c r="O5">
-        <v>193.8618537791949</v>
+        <v>487.9735312443925</v>
       </c>
       <c r="P5">
-        <v>193.8618537791949</v>
+        <v>487.9735312443925</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1221,28 +1221,28 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>58.53150319347987</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>70.69345228027603</v>
       </c>
       <c r="F9">
-        <v>0.1171474609544565</v>
+        <v>0.1134289347585407</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1171474609544565</v>
+        <v>0.1134289347585407</v>
       </c>
       <c r="I9">
-        <v>0.1171474609544565</v>
+        <v>0.1134289347585407</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>58.53202748279234</v>
+        <v>70.69372341209601</v>
       </c>
       <c r="N9">
-        <v>72.43534360902993</v>
+        <v>77.55358200929639</v>
       </c>
       <c r="O9">
-        <v>72.43534360902993</v>
+        <v>77.55358200929639</v>
       </c>
       <c r="P9">
-        <v>72.43534360902993</v>
+        <v>77.55358200929639</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1427,22 +1427,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.70630063869597</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>14.1386904560552</v>
       </c>
       <c r="F13">
-        <v>97.23054959081466</v>
+        <v>98.9274083267441</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>97.23054959081466</v>
+        <v>98.9274083267441</v>
       </c>
       <c r="I13">
-        <v>97.23054959081466</v>
+        <v>98.9274083267441</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>11.70640549655847</v>
+        <v>14.1387446824192</v>
       </c>
       <c r="N13">
-        <v>13.58329368888204</v>
+        <v>15.15166515816746</v>
       </c>
       <c r="O13">
-        <v>13.58329368888204</v>
+        <v>15.15166515816746</v>
       </c>
       <c r="P13">
-        <v>13.58329368888204</v>
+        <v>15.15166515816746</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1577,22 +1577,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2256185678034144</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.09702944186234982</v>
       </c>
       <c r="F16">
-        <v>1.873949595391746</v>
+        <v>0.6789080816690368</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.873949595391746</v>
+        <v>0.6789080816690368</v>
       </c>
       <c r="I16">
-        <v>1.873949595391746</v>
+        <v>0.6789080816690368</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2256205887561893</v>
+        <v>0.09702981400104603</v>
       </c>
       <c r="N16">
-        <v>2.379885791052328</v>
+        <v>0.9454553686534142</v>
       </c>
       <c r="O16">
-        <v>2.379885791052328</v>
+        <v>0.9454553686534142</v>
       </c>
       <c r="P16">
-        <v>2.379885791052328</v>
+        <v>0.9454553686534142</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1627,22 +1627,22 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06370389534602754</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.027333563488311</v>
       </c>
       <c r="F17">
-        <v>0.5291137607636203</v>
+        <v>0.1912509934804509</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.5291137607636203</v>
+        <v>0.1912509934804509</v>
       </c>
       <c r="I17">
-        <v>0.5291137607636203</v>
+        <v>0.1912509934804509</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.06370446596645706</v>
+        <v>0.0273336683211997</v>
       </c>
       <c r="N17">
-        <v>2.192009653542433</v>
+        <v>0.8707660885316089</v>
       </c>
       <c r="O17">
-        <v>2.192009653542433</v>
+        <v>0.8707660885316089</v>
       </c>
       <c r="P17">
-        <v>2.192009653542433</v>
+        <v>0.8707660885316089</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1677,22 +1677,22 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01790266329210063</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.007480804794502673</v>
       </c>
       <c r="F18">
-        <v>0.1486964878790394</v>
+        <v>0.0523426573923956</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1486964878790394</v>
+        <v>0.0523426573923956</v>
       </c>
       <c r="I18">
-        <v>0.1486964878790394</v>
+        <v>0.0523426573923956</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1704,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01790282365317999</v>
+        <v>0.00748083348576266</v>
       </c>
       <c r="N18">
-        <v>6.375047532066873</v>
+        <v>2.532439359367785</v>
       </c>
       <c r="O18">
-        <v>6.375047532066873</v>
+        <v>2.532439359367785</v>
       </c>
       <c r="P18">
-        <v>6.375047532066873</v>
+        <v>2.532439359367785</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1877,22 +1877,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.005683489611909718</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.002476130723804087</v>
       </c>
       <c r="F22">
-        <v>0.04720610170671524</v>
+        <v>0.01732531000275595</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.04720610170671524</v>
+        <v>0.01732531000275595</v>
       </c>
       <c r="I22">
-        <v>0.04720610170671524</v>
+        <v>0.01732531000275595</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1904,16 +1904,16 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.005683540521124388</v>
+        <v>0.002476140220551069</v>
       </c>
       <c r="N22">
-        <v>0.006594782669521434</v>
+        <v>0.00265353454986085</v>
       </c>
       <c r="O22">
-        <v>0.006594782669521434</v>
+        <v>0.00265353454986085</v>
       </c>
       <c r="P22">
-        <v>0.006594782669521434</v>
+        <v>0.00265353454986085</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1927,22 +1927,22 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.001565100462937718</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.0006741264581444877</v>
       </c>
       <c r="F23">
-        <v>0.01299945925472357</v>
+        <v>0.004716814728775692</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01299945925472357</v>
+        <v>0.004716814728775692</v>
       </c>
       <c r="I23">
-        <v>0.01299945925472357</v>
+        <v>0.004716814728775692</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1954,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.001565114482147902</v>
+        <v>0.0006741290436333496</v>
       </c>
       <c r="N23">
-        <v>0.001816049313684502</v>
+        <v>0.0007224246403734115</v>
       </c>
       <c r="O23">
-        <v>0.001816049313684502</v>
+        <v>0.0007224246403734115</v>
       </c>
       <c r="P23">
-        <v>0.001816049313684502</v>
+        <v>0.0007224246403734115</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1977,22 +1977,22 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.004856533364493074</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.002089328326043745</v>
       </c>
       <c r="F24">
-        <v>0.04033754323504124</v>
+        <v>0.01461888122394263</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.04033754323504124</v>
+        <v>0.01461888122394263</v>
       </c>
       <c r="I24">
-        <v>0.04033754323504124</v>
+        <v>0.01461888122394263</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.004856576866340793</v>
+        <v>0.002089336339280803</v>
       </c>
       <c r="N24">
-        <v>0.005635231917904368</v>
+        <v>0.002239019469312424</v>
       </c>
       <c r="O24">
-        <v>0.005635231917904368</v>
+        <v>0.002239019469312424</v>
       </c>
       <c r="P24">
-        <v>0.005635231917904368</v>
+        <v>0.002239019469312424</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2368,13 +2368,13 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>100</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2427,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>28.28995708611519</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>13.69037788634886</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>28.29021049020259</v>
+        <v>13.6904303932919</v>
       </c>
       <c r="N33">
-        <v>0.00328259804191551</v>
+        <v>0.002934246594724591</v>
       </c>
       <c r="O33">
-        <v>0.00328259804191551</v>
+        <v>0.002934246594724591</v>
       </c>
       <c r="P33">
-        <v>0.00328259804191551</v>
+        <v>0.002934246594724591</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2477,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.5853150319347988</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.7069345228027604</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2504,16 +2504,16 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.5853202748279235</v>
+        <v>0.70693723412096</v>
       </c>
       <c r="N34">
-        <v>0.6791646844441022</v>
+        <v>0.7575832579083729</v>
       </c>
       <c r="O34">
-        <v>0.6791646844441022</v>
+        <v>0.7575832579083729</v>
       </c>
       <c r="P34">
-        <v>0.6791646844441022</v>
+        <v>0.7575832579083729</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.02493852325251725</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.02999515628825191</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         <v>100</v>
       </c>
       <c r="M35">
-        <v>0.02481277129406062</v>
+        <v>0.02994135097867156</v>
       </c>
       <c r="N35">
-        <v>0.02893717630881641</v>
+        <v>0.03214417670851931</v>
       </c>
       <c r="O35">
-        <v>0.02893717630881641</v>
+        <v>0.03214417670851931</v>
       </c>
       <c r="P35">
-        <v>0.02893717630881641</v>
+        <v>0.03214417670851931</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.2499977606733655</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.2499990411743544</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2604,16 +2604,16 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.2492302366652406</v>
+        <v>0.2496703886213241</v>
       </c>
       <c r="N36">
-        <v>0.290082504251099</v>
+        <v>0.2679103679021761</v>
       </c>
       <c r="O36">
-        <v>0.290082504251099</v>
+        <v>0.2679103679021761</v>
       </c>
       <c r="P36">
-        <v>0.290082504251099</v>
+        <v>0.2679103679021761</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>100</v>
       </c>
-      <c r="D38">
-        <v>0.2926575159673994</v>
-      </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.3534672614013802</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2704,16 +2704,16 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.2926601374139617</v>
+        <v>0.35346861706048</v>
       </c>
       <c r="N38">
-        <v>2.018906698479359</v>
+        <v>1.879904988210028</v>
       </c>
       <c r="O38">
-        <v>2.018906698479359</v>
+        <v>1.879904988210028</v>
       </c>
       <c r="P38">
-        <v>2.018906698479359</v>
+        <v>1.879904988210028</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2924,7 +2924,7 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -2941,19 +2941,19 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2961,19 +2961,19 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>140.8911406039489</v>
+        <v>377.9081518565575</v>
       </c>
       <c r="C5">
-        <v>7.115819639950923</v>
+        <v>16.67524672677288</v>
       </c>
       <c r="D5">
-        <v>45.85489353529504</v>
+        <v>93.39013266106201</v>
       </c>
       <c r="E5">
-        <v>193.8618537791949</v>
+        <v>487.9735312443925</v>
       </c>
       <c r="F5">
-        <v>45.85489353529504</v>
+        <v>93.39013266106201</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3026,19 +3026,19 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>97.35616496954376</v>
+        <v>98.1152995794268</v>
       </c>
       <c r="C9">
-        <v>44.99999999999999</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="D9">
-        <v>0.1224946688001433</v>
+        <v>0.1620903373639028</v>
       </c>
       <c r="E9">
-        <v>72.43534360902993</v>
+        <v>77.55358200929639</v>
       </c>
       <c r="F9">
-        <v>0.1224946688001433</v>
+        <v>0.1620903373639028</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3106,19 +3106,19 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>0.06348310677321468</v>
+        <v>0.06645302799721764</v>
       </c>
       <c r="C13">
-        <v>0.001258205088922839</v>
+        <v>0.001507520679416089</v>
       </c>
       <c r="D13">
-        <v>57.2311727744192</v>
+        <v>78.89991225230187</v>
       </c>
       <c r="E13">
-        <v>13.58329368888204</v>
+        <v>15.15166515816746</v>
       </c>
       <c r="F13">
-        <v>57.2311727744192</v>
+        <v>78.89991225230187</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3166,19 +3166,19 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>1.053055491572433</v>
+        <v>0.3925884356307704</v>
       </c>
       <c r="C16">
-        <v>0.02087106075554599</v>
+        <v>0.008906067985912975</v>
       </c>
       <c r="D16">
-        <v>6.822704036253826</v>
+        <v>3.349886170315947</v>
       </c>
       <c r="E16">
-        <v>2.379885791052328</v>
+        <v>0.9454553686534142</v>
       </c>
       <c r="F16">
-        <v>6.822704036253826</v>
+        <v>3.349886170315947</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3186,19 +3186,19 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0.1181143580615957</v>
+        <v>0.04403145816418549</v>
       </c>
       <c r="C17">
-        <v>0.002340970597403996</v>
+        <v>0.0009988759839526537</v>
       </c>
       <c r="D17">
-        <v>8.903938029423335</v>
+        <v>4.371492876109759</v>
       </c>
       <c r="E17">
-        <v>2.192009653542433</v>
+        <v>0.8707660885316089</v>
       </c>
       <c r="F17">
-        <v>8.903938029423335</v>
+        <v>4.371492876109759</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3206,19 +3206,19 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.02979452792762461</v>
+        <v>0.01110691543751636</v>
       </c>
       <c r="C18">
-        <v>0.00059051342264188</v>
+        <v>0.0002519660158643603</v>
       </c>
       <c r="D18">
-        <v>26.86030760355904</v>
+        <v>13.18727949387709</v>
       </c>
       <c r="E18">
-        <v>6.375047532066873</v>
+        <v>2.532439359367785</v>
       </c>
       <c r="F18">
-        <v>26.86030760355904</v>
+        <v>13.18727949387709</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3292,13 +3292,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02788092382332705</v>
+        <v>0.01386500466033146</v>
       </c>
       <c r="E22">
-        <v>0.006594782669521434</v>
+        <v>0.00265353454986085</v>
       </c>
       <c r="F22">
-        <v>0.02788092382332705</v>
+        <v>0.01386500466033146</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3312,13 +3312,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.007677756055290488</v>
+        <v>0.003774746782943107</v>
       </c>
       <c r="E23">
-        <v>0.001816049313684502</v>
+        <v>0.0007224246403734115</v>
       </c>
       <c r="F23">
-        <v>0.007677756055290488</v>
+        <v>0.003774746782943107</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3332,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02382420766585691</v>
+        <v>0.0116991185881554</v>
       </c>
       <c r="E24">
-        <v>0.005635231917904368</v>
+        <v>0.002239019469312424</v>
       </c>
       <c r="F24">
-        <v>0.02382420766585691</v>
+        <v>0.0116991185881554</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3483,7 +3483,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3506,16 +3506,16 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>0.004512236669750262</v>
+        <v>0.003785054200789404</v>
       </c>
       <c r="C33">
-        <v>8.943039225514785e-05</v>
+        <v>8.586587627940257e-05</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.00328259804191551</v>
+        <v>0.002934246594724591</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3526,16 +3526,16 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0.933575099606095</v>
+        <v>0.9772504117238147</v>
       </c>
       <c r="C34">
-        <v>0.01850301601357109</v>
+        <v>0.02216942175611955</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.6791646844441022</v>
+        <v>0.7575832579083729</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3546,16 +3546,16 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.03977684333945347</v>
+        <v>0.0414646305802112</v>
       </c>
       <c r="C35">
-        <v>0.0007883581830639597</v>
+        <v>0.0009406461969894641</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.02893717630881641</v>
+        <v>0.03214417670851931</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3566,16 +3566,16 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.3987454133040897</v>
+        <v>0.3455930613624332</v>
       </c>
       <c r="C36">
-        <v>0.007902945109414984</v>
+        <v>0.00783995406030851</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.290082504251099</v>
+        <v>0.2679103679021761</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3606,16 +3606,16 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0.002777953202001716</v>
+        <v>0.00242742547625413</v>
       </c>
       <c r="C38">
-        <v>54.94765550043719</v>
+        <v>54.95729968144516</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>2.018906698479359</v>
+        <v>1.879904988210028</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3783,28 +3783,28 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
         <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3812,28 +3812,28 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>51.78610861849466</v>
+        <v>4.242987081124284</v>
       </c>
       <c r="C5">
-        <v>45.85489353529504</v>
+        <v>93.39013266106201</v>
       </c>
       <c r="D5">
-        <v>45.85489353529504</v>
+        <v>93.39013266106201</v>
       </c>
       <c r="E5">
-        <v>97.64100215378971</v>
+        <v>97.6331197421863</v>
       </c>
       <c r="F5">
-        <v>97.6410021537897</v>
+        <v>97.6331197421863</v>
       </c>
       <c r="G5">
-        <v>97.6410021537897</v>
+        <v>97.6331197421863</v>
       </c>
       <c r="H5">
-        <v>97.64100215378971</v>
+        <v>97.6331197421863</v>
       </c>
       <c r="I5">
-        <v>97.64100215378971</v>
+        <v>97.6331197421863</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3907,25 +3907,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1224946688001433</v>
+        <v>0.1620903373639028</v>
       </c>
       <c r="D9">
-        <v>0.1224946688001433</v>
+        <v>0.1620903373639028</v>
       </c>
       <c r="E9">
-        <v>2.636674494363847</v>
+        <v>2.734204317405633</v>
       </c>
       <c r="F9">
-        <v>0.0575268572891618</v>
+        <v>0.155046137514239</v>
       </c>
       <c r="G9">
-        <v>0.0575268572891618</v>
+        <v>0.155046137514239</v>
       </c>
       <c r="H9">
-        <v>2.636674494363847</v>
+        <v>2.734204317405633</v>
       </c>
       <c r="I9">
-        <v>2.636674494363847</v>
+        <v>2.734204317405633</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4023,25 +4023,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>57.2311727744192</v>
+        <v>78.89991225230187</v>
       </c>
       <c r="D13">
-        <v>57.2311727744192</v>
+        <v>78.89991225230187</v>
       </c>
       <c r="E13">
-        <v>26.8773289558992</v>
+        <v>75.47104191329841</v>
       </c>
       <c r="F13">
-        <v>26.8773289558992</v>
+        <v>75.47104191329841</v>
       </c>
       <c r="G13">
-        <v>26.8773289558992</v>
+        <v>75.47104191329841</v>
       </c>
       <c r="H13">
-        <v>26.8773289558992</v>
+        <v>75.47104191329841</v>
       </c>
       <c r="I13">
-        <v>26.8773289558992</v>
+        <v>75.47104191329841</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.822704036253826</v>
+        <v>3.349886170315947</v>
       </c>
       <c r="D16">
-        <v>6.822704036253826</v>
+        <v>3.349886170315947</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.204129006300907</v>
+        <v>3.204305205768054</v>
       </c>
       <c r="G16">
-        <v>3.204129006300907</v>
+        <v>3.204305205768054</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4139,19 +4139,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.903938029423335</v>
+        <v>4.371492876109759</v>
       </c>
       <c r="D17">
-        <v>8.903938029423335</v>
+        <v>4.371492876109759</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.181533591195581</v>
+        <v>4.181514435929422</v>
       </c>
       <c r="G17">
-        <v>4.181533591195581</v>
+        <v>4.181514435929422</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4168,19 +4168,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>26.86030760355904</v>
+        <v>13.18727949387709</v>
       </c>
       <c r="D18">
-        <v>26.86030760355904</v>
+        <v>13.18727949387709</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>12.61433740250352</v>
+        <v>12.61418035830252</v>
       </c>
       <c r="G18">
-        <v>12.61433740250352</v>
+        <v>12.61418035830252</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4284,25 +4284,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02788092382332705</v>
+        <v>0.01386500466033146</v>
       </c>
       <c r="D22">
-        <v>0.02788092382332705</v>
+        <v>0.01386500466033146</v>
       </c>
       <c r="E22">
-        <v>2.652276073275005</v>
+        <v>2.652590011388687</v>
       </c>
       <c r="F22">
-        <v>0.01309364678140711</v>
+        <v>0.01326245261847455</v>
       </c>
       <c r="G22">
-        <v>0.01309364678140711</v>
+        <v>0.01326245261847455</v>
       </c>
       <c r="H22">
-        <v>2.652276073275005</v>
+        <v>2.652590011388687</v>
       </c>
       <c r="I22">
-        <v>2.652276073275005</v>
+        <v>2.652590011388687</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4313,25 +4313,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.007677756055290488</v>
+        <v>0.003774746782943107</v>
       </c>
       <c r="D23">
-        <v>0.007677756055290488</v>
+        <v>0.003774746782943107</v>
       </c>
       <c r="E23">
-        <v>3.606680382829302</v>
+        <v>3.606668894563887</v>
       </c>
       <c r="F23">
-        <v>0.003605684894044768</v>
+        <v>0.003610702021525711</v>
       </c>
       <c r="G23">
-        <v>0.003605684894044768</v>
+        <v>0.003610702021525711</v>
       </c>
       <c r="H23">
-        <v>3.606680382829302</v>
+        <v>3.606668894563887</v>
       </c>
       <c r="I23">
-        <v>3.606680382829302</v>
+        <v>3.606668894563887</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4342,25 +4342,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02382420766585691</v>
+        <v>0.0116991185881554</v>
       </c>
       <c r="D24">
-        <v>0.02382420766585691</v>
+        <v>0.0116991185881554</v>
       </c>
       <c r="E24">
-        <v>11.18978374006837</v>
+        <v>11.18964676146109</v>
       </c>
       <c r="F24">
-        <v>0.01118850157191087</v>
+        <v>0.01119069266505508</v>
       </c>
       <c r="G24">
-        <v>0.01118850157191087</v>
+        <v>0.01119069266505508</v>
       </c>
       <c r="H24">
-        <v>11.18978374006837</v>
+        <v>11.18964676146109</v>
       </c>
       <c r="I24">
-        <v>11.18978374006837</v>
+        <v>11.18964676146109</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4513,7 +4513,7 @@
         <v>43</v>
       </c>
       <c r="B30">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4522,19 +4522,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>53.03725635356427</v>
+        <v>4.345848101882309</v>
       </c>
       <c r="F30">
-        <v>53.03725635356427</v>
+        <v>4.345848101882309</v>
       </c>
       <c r="G30">
-        <v>53.03725635356427</v>
+        <v>4.345848101882309</v>
       </c>
       <c r="H30">
-        <v>53.03725635356427</v>
+        <v>4.345848101882309</v>
       </c>
       <c r="I30">
-        <v>53.03725635356427</v>
+        <v>4.345848101882309</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4568,7 +4568,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -5138,88 +5138,88 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
+      <c r="W4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="Z4" t="s">
         <v>56</v>
       </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="AA4" t="s">
         <v>56</v>
-      </c>
-      <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>58</v>
       </c>
       <c r="AB4" t="s">
         <v>134</v>
       </c>
       <c r="AC4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -5227,88 +5227,88 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>45.85489353529505</v>
+        <v>93.39013266106201</v>
       </c>
       <c r="C5">
-        <v>142.6524210321622</v>
+        <v>379.5496848408239</v>
       </c>
       <c r="D5">
-        <v>27.0813132965063</v>
+        <v>74.73741800893318</v>
       </c>
       <c r="E5">
-        <v>140.8911406039489</v>
+        <v>377.9081518565575</v>
       </c>
       <c r="F5">
-        <v>45.85489353529505</v>
+        <v>93.39013266106201</v>
       </c>
       <c r="G5">
-        <v>43.53786567544784</v>
+        <v>90.98759258337421</v>
       </c>
       <c r="H5">
-        <v>2.317027859847205</v>
+        <v>2.402540077687802</v>
       </c>
       <c r="I5">
-        <v>43.53786567544784</v>
+        <v>90.98759258337421</v>
       </c>
       <c r="J5">
-        <v>43.53786567544784</v>
+        <v>90.98759258337421</v>
       </c>
       <c r="K5">
-        <v>25.96144254255111</v>
+        <v>73.40290827721212</v>
       </c>
       <c r="L5">
-        <v>19.90797235153691</v>
+        <v>24.66040468559617</v>
       </c>
       <c r="M5">
-        <v>23.62989332391093</v>
+        <v>66.32718789777805</v>
       </c>
       <c r="N5">
-        <v>17.5764231329121</v>
+        <v>17.58468430609892</v>
       </c>
       <c r="O5">
-        <v>2.331549218624807</v>
+        <v>7.075720379497251</v>
       </c>
       <c r="P5">
-        <v>25.96144254253574</v>
+        <v>73.40290827727529</v>
       </c>
       <c r="Q5">
-        <v>25.96144254253574</v>
+        <v>73.40290827727529</v>
       </c>
       <c r="R5">
-        <v>0.5641233223212901</v>
+        <v>0.573502638299479</v>
       </c>
       <c r="S5">
-        <v>27.0813132965063</v>
+        <v>74.73741800893318</v>
       </c>
       <c r="T5">
-        <v>17.5764231329121</v>
+        <v>17.58468430609892</v>
       </c>
       <c r="U5">
-        <v>17.01229981057545</v>
+        <v>17.01118166786261</v>
       </c>
       <c r="V5">
-        <v>2.64944814807291</v>
+        <v>2.649642757125561</v>
       </c>
       <c r="W5">
-        <v>14.36285166250254</v>
+        <v>14.36153891073705</v>
       </c>
       <c r="X5">
-        <v>2.64944814807291</v>
+        <v>2.649642757125561</v>
       </c>
       <c r="Y5">
-        <v>3.535909734629953</v>
+        <v>3.53560413073683</v>
       </c>
       <c r="Z5">
-        <v>10.82694192787258</v>
+        <v>10.82593478000022</v>
       </c>
       <c r="AA5">
-        <v>3.535909734629953</v>
+        <v>3.53560413073683</v>
       </c>
       <c r="AB5">
-        <v>17.01229981057544</v>
+        <v>17.01118166786261</v>
       </c>
       <c r="AC5">
-        <v>10.82694192787258</v>
+        <v>10.82593478000022</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -5499,73 +5499,73 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>5.614396199281597</v>
+        <v>2.858427222602804</v>
       </c>
       <c r="C9">
-        <v>97.93481991820929</v>
+        <v>98.37124782399718</v>
       </c>
       <c r="D9">
-        <v>0.1171307725061561</v>
+        <v>0.1134287585275641</v>
       </c>
       <c r="E9">
-        <v>97.35616496954376</v>
+        <v>98.1152995794268</v>
       </c>
       <c r="F9">
-        <v>5.614396199281597</v>
+        <v>2.858427222602804</v>
       </c>
       <c r="G9">
-        <v>0.5913186969296115</v>
+        <v>0.2933904392252767</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>0.5913186969296115</v>
+        <v>0.2933904392252767</v>
       </c>
       <c r="J9">
-        <v>0.5913186969296115</v>
+        <v>0.2933904392252767</v>
       </c>
       <c r="K9">
-        <v>9.916591718672562e-12</v>
+        <v>3.636760111616424e-12</v>
       </c>
       <c r="L9">
-        <v>1.293188153139931</v>
+        <v>1.082500068111692</v>
       </c>
       <c r="M9">
-        <v>1.089505663835329e-11</v>
+        <v>4.024726169766453e-12</v>
       </c>
       <c r="N9">
-        <v>1.464732261115174</v>
+        <v>1.518076144380605</v>
       </c>
       <c r="O9">
-        <v>1.10419726105591e-10</v>
+        <v>3.772743333282646e-11</v>
       </c>
       <c r="P9">
-        <v>1.983318343735686e-11</v>
+        <v>7.273520223226589e-12</v>
       </c>
       <c r="Q9">
-        <v>1.983318343735686e-11</v>
+        <v>7.273520223226589e-12</v>
       </c>
       <c r="R9">
-        <v>45.18038068907984</v>
+        <v>46.08163779797828</v>
       </c>
       <c r="S9">
-        <v>0.1171307725061561</v>
+        <v>0.1134287585275641</v>
       </c>
       <c r="T9">
-        <v>1.464732261115174</v>
+        <v>1.518076144380605</v>
       </c>
       <c r="U9">
-        <v>0.01513302392075232</v>
+        <v>0.01569255462261714</v>
       </c>
       <c r="V9">
-        <v>0.09717025040392056</v>
+        <v>0.1007490148625901</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.09717025040392056</v>
+        <v>0.1007490148625901</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.01513302392075232</v>
+        <v>0.01569255462261714</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -5855,61 +5855,61 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>57.23117277441919</v>
+        <v>78.89991225230187</v>
       </c>
       <c r="C13">
-        <v>1.84593680397202e-05</v>
+        <v>1.947989079962681e-05</v>
       </c>
       <c r="D13">
-        <v>97.23571673533276</v>
+        <v>98.9274076703342</v>
       </c>
       <c r="E13">
-        <v>0.06348310677321468</v>
+        <v>0.06645302799721764</v>
       </c>
       <c r="F13">
-        <v>57.23117277441919</v>
+        <v>78.89991225230187</v>
       </c>
       <c r="G13">
-        <v>60.27694040020426</v>
+        <v>80.98327544425034</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>60.27694040020426</v>
+        <v>80.98327544425034</v>
       </c>
       <c r="J13">
-        <v>60.27694040020426</v>
+        <v>80.98327544425034</v>
       </c>
       <c r="K13">
-        <v>99.95790174021977</v>
+        <v>99.98511168873158</v>
       </c>
       <c r="L13">
-        <v>13.18230349193984</v>
+        <v>29.87977434325096</v>
       </c>
       <c r="M13">
-        <v>99.95374793478115</v>
+        <v>99.98352342617437</v>
       </c>
       <c r="N13">
-        <v>1.665754832310568</v>
+        <v>1.66481748004405</v>
       </c>
       <c r="O13">
-        <v>99.99999992118651</v>
+        <v>99.99999992301666</v>
       </c>
       <c r="P13">
-        <v>99.95790174027893</v>
+        <v>99.98511168864553</v>
       </c>
       <c r="Q13">
-        <v>99.95790174027893</v>
+        <v>99.98511168864553</v>
       </c>
       <c r="R13">
-        <v>51.90002010182558</v>
+        <v>51.04647800863718</v>
       </c>
       <c r="S13">
-        <v>97.23571673533276</v>
+        <v>98.9274076703342</v>
       </c>
       <c r="T13">
-        <v>1.665754832310568</v>
+        <v>1.66481748004405</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -6125,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6843553854237403</v>
+        <v>0.2572059560510501</v>
       </c>
       <c r="D16">
-        <v>1.873662336617299</v>
+        <v>0.678909332739564</v>
       </c>
       <c r="E16">
-        <v>1.053055491572433</v>
+        <v>0.3925884356307704</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>1.873662336617299</v>
+        <v>0.678909332739564</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -6214,13 +6214,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01644850173387652</v>
+        <v>0.006181584434551888</v>
       </c>
       <c r="D17">
-        <v>0.5278491437177227</v>
+        <v>0.1912513026970918</v>
       </c>
       <c r="E17">
-        <v>0.1181143580615957</v>
+        <v>0.04403145816418549</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.5278491437177227</v>
+        <v>0.1912513026970918</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -6303,13 +6303,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.002001013228736098</v>
+        <v>0.0007520037445305334</v>
       </c>
       <c r="D18">
-        <v>0.1444662450098892</v>
+        <v>0.05234287196161372</v>
       </c>
       <c r="E18">
-        <v>0.02979452792762461</v>
+        <v>0.01110691543751636</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1444662450098892</v>
+        <v>0.05234287196161372</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -6656,85 +6656,85 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>5.647617382074102</v>
+        <v>2.773104939777199</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04781358276268316</v>
+        <v>0.01732603799534866</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.647617382074102</v>
+        <v>2.773104939777199</v>
       </c>
       <c r="G22">
-        <v>5.948176139675359</v>
+        <v>2.846329162644111</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.948176139675359</v>
+        <v>2.846329162644111</v>
       </c>
       <c r="J22">
-        <v>5.948176139675359</v>
+        <v>2.846329162644111</v>
       </c>
       <c r="K22">
-        <v>5.64072654437507e-09</v>
+        <v>2.095583563976868e-09</v>
       </c>
       <c r="L22">
-        <v>13.00840131097831</v>
+        <v>10.50188110685322</v>
       </c>
       <c r="M22">
-        <v>6.197105787759313e-09</v>
+        <v>2.319137898811393e-09</v>
       </c>
       <c r="N22">
-        <v>14.73399289922285</v>
+        <v>14.72762510513792</v>
       </c>
       <c r="O22">
-        <v>1.110726969927513e-09</v>
+        <v>3.660141067560982e-10</v>
       </c>
       <c r="P22">
-        <v>5.740307497798528e-09</v>
+        <v>2.130865279327119e-09</v>
       </c>
       <c r="Q22">
-        <v>5.740307497798528e-09</v>
+        <v>2.130865279327119e-09</v>
       </c>
       <c r="R22">
-        <v>2.295339364547293</v>
+        <v>2.257885323971105</v>
       </c>
       <c r="S22">
-        <v>0.04781358276268316</v>
+        <v>0.01732603799534866</v>
       </c>
       <c r="T22">
-        <v>14.73399289922285</v>
+        <v>14.72762510513792</v>
       </c>
       <c r="U22">
-        <v>15.14645533158806</v>
+        <v>15.1480208662729</v>
       </c>
       <c r="V22">
-        <v>97.25639686845136</v>
+        <v>97.25291290571454</v>
       </c>
       <c r="W22">
-        <v>1.80045793609203e-05</v>
+        <v>1.800466886328939e-05</v>
       </c>
       <c r="X22">
-        <v>97.25639686845136</v>
+        <v>97.25291290571454</v>
       </c>
       <c r="Y22">
-        <v>7.313453170877287e-05</v>
+        <v>7.313453172179056e-05</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>7.313453170877287e-05</v>
+        <v>7.313453172179056e-05</v>
       </c>
       <c r="AB22">
-        <v>15.14645533158807</v>
+        <v>15.1480208662729</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -6745,88 +6745,88 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>7.67987579682865</v>
+        <v>3.770530419218384</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01301669028057046</v>
+        <v>0.004716439406022134</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>7.67987579682865</v>
+        <v>3.770530419218384</v>
       </c>
       <c r="G23">
-        <v>8.088588670217229</v>
+        <v>3.870091801040991</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.088588670217229</v>
+        <v>3.870091801040991</v>
       </c>
       <c r="J23">
-        <v>8.088588670217229</v>
+        <v>3.870091801040991</v>
       </c>
       <c r="K23">
-        <v>1.346343036800361e-05</v>
+        <v>4.966177618040111e-06</v>
       </c>
       <c r="L23">
-        <v>17.68937244271925</v>
+        <v>14.2791643531799</v>
       </c>
       <c r="M23">
-        <v>1.479152565524195e-05</v>
+        <v>5.495963732880429e-06</v>
       </c>
       <c r="N23">
-        <v>20.03590462286655</v>
+        <v>20.02481053332897</v>
       </c>
       <c r="O23">
-        <v>1.51040962458935e-09</v>
+        <v>4.976577052841956e-10</v>
       </c>
       <c r="P23">
-        <v>1.346326169483723e-05</v>
+        <v>4.966224759104772e-06</v>
       </c>
       <c r="Q23">
-        <v>1.346326169483723e-05</v>
+        <v>4.966224759104772e-06</v>
       </c>
       <c r="R23">
-        <v>0.6242598445472958</v>
+        <v>0.6139988694134231</v>
       </c>
       <c r="S23">
-        <v>0.01301669028057046</v>
+        <v>0.004716439406022134</v>
       </c>
       <c r="T23">
-        <v>20.03590462286655</v>
+        <v>20.02481053332897</v>
       </c>
       <c r="U23">
-        <v>20.67958958386093</v>
+        <v>20.6792125566767</v>
       </c>
       <c r="V23">
-        <v>2.646432567849021</v>
+        <v>2.646337766141893</v>
       </c>
       <c r="W23">
-        <v>24.00608181414106</v>
+        <v>24.00620114584318</v>
       </c>
       <c r="X23">
-        <v>2.646432567849021</v>
+        <v>2.646337766141893</v>
       </c>
       <c r="Y23">
         <v>97.51236649568051</v>
       </c>
       <c r="Z23">
-        <v>8.000001599709218e-05</v>
+        <v>8.000001600007326e-05</v>
       </c>
       <c r="AA23">
         <v>97.51236649568051</v>
       </c>
       <c r="AB23">
-        <v>20.67958958386093</v>
+        <v>20.6792125566767</v>
       </c>
       <c r="AC23">
-        <v>8.000001599709218e-05</v>
+        <v>8.000001600007326e-05</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -6834,73 +6834,73 @@
         <v>37</v>
       </c>
       <c r="B24">
-        <v>23.82693784739647</v>
+        <v>11.69802516609975</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04034449377291703</v>
+        <v>0.01461758633859379</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.82693784739647</v>
+        <v>11.69802516609975</v>
       </c>
       <c r="G24">
-        <v>25.09497609297355</v>
+        <v>12.00691315283928</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.09497609297355</v>
+        <v>12.00691315283928</v>
       </c>
       <c r="J24">
-        <v>25.09497609297355</v>
+        <v>12.00691315283928</v>
       </c>
       <c r="K24">
-        <v>0.04208479069922865</v>
+        <v>0.01488334299157892</v>
       </c>
       <c r="L24">
-        <v>54.82673460122266</v>
+        <v>44.25668012860423</v>
       </c>
       <c r="M24">
-        <v>0.04623726748520303</v>
+        <v>0.01647107553871112</v>
       </c>
       <c r="N24">
-        <v>62.09961538448487</v>
+        <v>62.06467073710846</v>
       </c>
       <c r="O24">
-        <v>7.608195848362619e-08</v>
+        <v>7.608194476337049e-08</v>
       </c>
       <c r="P24">
-        <v>0.04208479069925356</v>
+        <v>0.01488334299156611</v>
       </c>
       <c r="Q24">
-        <v>0.04208479069925356</v>
+        <v>0.01488334299156611</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0.04034449377291703</v>
+        <v>0.01461758633859379</v>
       </c>
       <c r="T24">
-        <v>62.09961538448487</v>
+        <v>62.06467073710846</v>
       </c>
       <c r="U24">
-        <v>64.15882206063026</v>
+        <v>64.15707402242778</v>
       </c>
       <c r="V24">
-        <v>3.132957040245347e-07</v>
+        <v>3.132809757063921e-07</v>
       </c>
       <c r="W24">
-        <v>75.99390018127959</v>
+        <v>75.99378084948795</v>
       </c>
       <c r="X24">
-        <v>3.132957040245347e-07</v>
+        <v>3.132809757063921e-07</v>
       </c>
       <c r="Y24">
         <v>2.487560369787771</v>
@@ -6912,7 +6912,7 @@
         <v>2.487560369787771</v>
       </c>
       <c r="AB24">
-        <v>64.15882206063026</v>
+        <v>64.15707402242778</v>
       </c>
       <c r="AC24">
         <v>99.999919999984</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7638,13 +7638,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.004456525633958548</v>
+        <v>0.003768684034863861</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.004512236669750262</v>
+        <v>0.003785054200789404</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -7727,13 +7727,13 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.9220485686204569</v>
+        <v>0.9730238536503829</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.933575099606095</v>
+        <v>0.9772504117238147</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -7816,13 +7816,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.03928573232175759</v>
+        <v>0.04128529817263357</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.03977684333945347</v>
+        <v>0.0414646305802112</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -7905,13 +7905,13 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.3938222406918704</v>
+        <v>0.3440983890388402</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.3987454133040897</v>
+        <v>0.3455930613624332</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -8083,13 +8083,13 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0.00274365476829988</v>
+        <v>0.002416926985159899</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.002777953202001716</v>
+        <v>0.00242742547625413</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -8482,13 +8482,13 @@
         <v>146</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>149</v>
@@ -8547,76 +8547,76 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>158</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>158</v>
       </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>159</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
         <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
         <v>131</v>
       </c>
-      <c r="O2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>55</v>
-      </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="X2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y2" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="Z2" t="s">
         <v>62</v>
@@ -8648,34 +8648,34 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
         <v>159</v>
-      </c>
-      <c r="F3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
       </c>
       <c r="J3" t="s">
         <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L3" t="s">
         <v>85</v>
@@ -8684,52 +8684,52 @@
         <v>160</v>
       </c>
       <c r="N3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" t="s">
         <v>55</v>
       </c>
-      <c r="O3" t="s">
-        <v>158</v>
-      </c>
-      <c r="P3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" t="s">
-        <v>158</v>
-      </c>
-      <c r="T3" t="s">
-        <v>158</v>
-      </c>
-      <c r="U3" t="s">
-        <v>158</v>
-      </c>
-      <c r="V3" t="s">
-        <v>158</v>
-      </c>
-      <c r="W3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>57</v>
-      </c>
       <c r="AC3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s">
         <v>84</v>
@@ -8749,100 +8749,100 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>56</v>
       </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
         <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
         <v>56</v>
       </c>
       <c r="Z4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AA4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AF4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AG4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -8850,100 +8850,100 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>3.535909734629953</v>
+        <v>1222.941477603761</v>
       </c>
       <c r="C5">
-        <v>1.997124148358365</v>
+        <v>1222.941477603761</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>13.45235625364137</v>
       </c>
       <c r="E5">
-        <v>13.49472344558942</v>
+        <v>13.45235625364137</v>
       </c>
       <c r="F5">
-        <v>1226.793040508129</v>
+        <v>1.307331682822092</v>
       </c>
       <c r="G5">
-        <v>1226.793040508129</v>
+        <v>607.716760736527</v>
       </c>
       <c r="H5">
-        <v>13.49472344558942</v>
+        <v>0.1568550741739992</v>
       </c>
       <c r="I5">
-        <v>607.8404755222124</v>
+        <v>607.716760736527</v>
       </c>
       <c r="J5">
-        <v>1.316641247476956</v>
+        <v>3.6968057757318</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>51.78610861849466</v>
+        <v>4.242987081124284</v>
       </c>
       <c r="M5">
-        <v>607.8404755222124</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.64944814807291</v>
+        <v>93.39013266106201</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.634290625972899</v>
       </c>
       <c r="P5">
-        <v>45.85489353529505</v>
+        <v>2.37782265381358</v>
       </c>
       <c r="Q5">
-        <v>63.63705416176884</v>
+        <v>2.649642757125561</v>
       </c>
       <c r="R5">
-        <v>0.5623593202302924</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1.997124148358365</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.285268928852712</v>
+        <v>3.53560413073683</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>11.86358375714188</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>10.82593478000022</v>
       </c>
       <c r="W5">
-        <v>0.05609814642362549</v>
+        <v>1.634290625972899</v>
       </c>
       <c r="X5">
-        <v>10.82694192787258</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>11.40180883614526</v>
+        <v>71.59173361848406</v>
       </c>
       <c r="Z5">
-        <v>63.63705416176884</v>
+        <v>71.59173361848406</v>
       </c>
       <c r="AA5">
-        <v>0.5623593202302924</v>
+        <v>1.307331682822092</v>
       </c>
       <c r="AB5">
-        <v>1.316641247476956</v>
+        <v>3.6968057757318</v>
       </c>
       <c r="AC5">
-        <v>0.05609814642362549</v>
+        <v>0.1568550741739992</v>
       </c>
       <c r="AD5">
-        <v>97.64100215378971</v>
+        <v>97.6331197421863</v>
       </c>
       <c r="AE5">
-        <v>2.64944814807291</v>
+        <v>2.649642757125561</v>
       </c>
       <c r="AF5">
-        <v>3.535909734629953</v>
+        <v>3.53560413073683</v>
       </c>
       <c r="AG5">
-        <v>10.82694192787258</v>
+        <v>10.82593478000022</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -9158,25 +9158,25 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9">
-        <v>99.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>100</v>
@@ -9191,43 +9191,43 @@
         <v>0</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2.858427222602804</v>
+      </c>
+      <c r="O9">
         <v>100</v>
       </c>
-      <c r="N9">
-        <v>0.09717025040392056</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
-        <v>5.614396199281597</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1007490148625901</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>45.01565840905167</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>100</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>45.01565840905167</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>2.636674494363847</v>
+        <v>2.734204317405633</v>
       </c>
       <c r="AE9">
-        <v>0.09717025040392056</v>
+        <v>0.1007490148625901</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -9598,13 +9598,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>78.89991225230187</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>57.23117277441919</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>26.8773289558992</v>
+        <v>75.47104191329841</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -10471,7 +10471,7 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>7.313453170877287e-05</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -10507,16 +10507,16 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>97.25639686845136</v>
+        <v>2.773104939777199</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>5.647617382074102</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>97.25291290571454</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>7.313453172179056e-05</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -10555,13 +10555,13 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>2.652276073275005</v>
+        <v>2.652590011388687</v>
       </c>
       <c r="AE22">
-        <v>97.25639686845136</v>
+        <v>97.25291290571454</v>
       </c>
       <c r="AF22">
-        <v>7.313453170877287e-05</v>
+        <v>7.313453172179056e-05</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -10572,73 +10572,73 @@
         <v>36</v>
       </c>
       <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>3.770530419218384</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2.646337766141893</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>97.51236649568051</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>2.646432567849021</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>7.67987579682865</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>8.000001600007326e-05</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>8.000001599709218e-05</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -10656,16 +10656,16 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>3.606680382829302</v>
+        <v>3.606668894563887</v>
       </c>
       <c r="AE23">
-        <v>2.646432567849021</v>
+        <v>2.646337766141893</v>
       </c>
       <c r="AF23">
         <v>97.51236649568051</v>
       </c>
       <c r="AG23">
-        <v>8.000001599709218e-05</v>
+        <v>8.000001600007326e-05</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -10673,73 +10673,73 @@
         <v>37</v>
       </c>
       <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.69802516609975</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>3.132809757063921e-07</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>2.487560369787771</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>3.132957040245347e-07</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>23.82693784739647</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>99.999919999984</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>99.999919999984</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -10757,10 +10757,10 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>11.18978374006837</v>
+        <v>11.18964676146109</v>
       </c>
       <c r="AE24">
-        <v>3.132957040245347e-07</v>
+        <v>3.132809757063921e-07</v>
       </c>
       <c r="AF24">
         <v>2.487560369787771</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>53.03725635356427</v>
+        <v>4.345848101882309</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11538,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>54.98434159094833</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>54.98434159094833</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -11627,31 +11627,31 @@
         <v>0</v>
       </c>
       <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
         <v>100</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
       </c>
       <c r="Z33">
         <v>100</v>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S36">
         <v>0</v>

--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables.xlsx
@@ -230,27 +230,27 @@
     <t>C101</t>
   </si>
   <si>
+    <t>cell_mass</t>
+  </si>
+  <si>
+    <t>oil_fraction</t>
+  </si>
+  <si>
     <t>aqueous_fraction</t>
   </si>
   <si>
-    <t>cell_mass</t>
-  </si>
-  <si>
-    <t>oil_fraction</t>
-  </si>
-  <si>
     <t>s12</t>
   </si>
   <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>H102</t>
+  </si>
+  <si>
     <t>M104</t>
   </si>
   <si>
-    <t>P107</t>
-  </si>
-  <si>
-    <t>H102</t>
-  </si>
-  <si>
     <t>recycle_nitrogen</t>
   </si>
   <si>
@@ -287,12 +287,12 @@
     <t>R102</t>
   </si>
   <si>
+    <t>wastewater</t>
+  </si>
+  <si>
     <t>LAOs_to_separations</t>
   </si>
   <si>
-    <t>wastewater</t>
-  </si>
-  <si>
     <t>solvent_recycle</t>
   </si>
   <si>
@@ -428,79 +428,79 @@
     <t>T110</t>
   </si>
   <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>s.18</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>s.12</t>
+  </si>
+  <si>
+    <t>recirculated_chilled_water</t>
+  </si>
+  <si>
+    <t>s.13</t>
+  </si>
+  <si>
+    <t>boiler_makeup_water</t>
+  </si>
+  <si>
+    <t>natural_gas</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>hexene</t>
+  </si>
+  <si>
+    <t>boiler_chemicals</t>
+  </si>
+  <si>
+    <t>emissions</t>
+  </si>
+  <si>
+    <t>octene</t>
+  </si>
+  <si>
+    <t>rejected_water_and_blowdown</t>
+  </si>
+  <si>
+    <t>decene</t>
+  </si>
+  <si>
+    <t>ash_disposal</t>
+  </si>
+  <si>
+    <t>cooling_tower_makeup_water</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
     <t>s.15</t>
   </si>
   <si>
     <t>s.16</t>
   </si>
   <si>
-    <t>cooling_tower_makeup_water</t>
-  </si>
-  <si>
     <t>evaporation_and_blowdown</t>
   </si>
   <si>
     <t>CSL</t>
   </si>
   <si>
-    <t>s.18</t>
-  </si>
-  <si>
-    <t>DAP</t>
-  </si>
-  <si>
-    <t>recirculated_chilled_water</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>s.12</t>
-  </si>
-  <si>
-    <t>s.13</t>
-  </si>
-  <si>
-    <t>boiler_makeup_water</t>
-  </si>
-  <si>
-    <t>natural_gas</t>
-  </si>
-  <si>
-    <t>hexene</t>
-  </si>
-  <si>
-    <t>lime</t>
-  </si>
-  <si>
-    <t>boiler_chemicals</t>
-  </si>
-  <si>
-    <t>octene</t>
-  </si>
-  <si>
-    <t>emissions</t>
-  </si>
-  <si>
-    <t>decene</t>
-  </si>
-  <si>
-    <t>rejected_water_and_blowdown</t>
-  </si>
-  <si>
-    <t>ash_disposal</t>
-  </si>
-  <si>
-    <t>glucose</t>
+    <t>CWP</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
   <si>
     <t>CT</t>
-  </si>
-  <si>
-    <t>CWP</t>
-  </si>
-  <si>
-    <t>BT</t>
   </si>
 </sst>
 </file>
@@ -1066,49 +1066,49 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>369.5958033436227</v>
+        <v>369.5980111500636</v>
       </c>
       <c r="C5">
         <v>34.96110934797288</v>
       </c>
       <c r="D5">
-        <v>1.8484028878659</v>
+        <v>1.848413927091753</v>
       </c>
       <c r="E5">
-        <v>522.9346787415607</v>
+        <v>522.9374012389151</v>
       </c>
       <c r="F5">
-        <v>74.73774635886024</v>
+        <v>74.73821516671445</v>
       </c>
       <c r="G5">
         <v>71.59173361848406</v>
       </c>
       <c r="H5">
-        <v>74.73774635886024</v>
+        <v>74.73821516671445</v>
       </c>
       <c r="I5">
-        <v>74.73774635886024</v>
+        <v>74.73821516671445</v>
       </c>
       <c r="J5">
-        <v>1.307331682822092</v>
+        <v>1.307343500890849</v>
       </c>
       <c r="K5">
-        <v>3.6968057757318</v>
+        <v>3.696827854183506</v>
       </c>
       <c r="L5">
-        <v>0.1568550741739992</v>
+        <v>0.1568560214868631</v>
       </c>
       <c r="M5">
-        <v>522.9326731288369</v>
+        <v>522.9374003563396</v>
       </c>
       <c r="N5">
-        <v>487.9735312443925</v>
+        <v>487.9762537417469</v>
       </c>
       <c r="O5">
-        <v>487.9735312443925</v>
+        <v>487.9762537417469</v>
       </c>
       <c r="P5">
-        <v>487.9735312443925</v>
+        <v>487.9762537417469</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1230,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>70.69345228027603</v>
+        <v>70.69350643930193</v>
       </c>
       <c r="F9">
-        <v>0.1134289347585407</v>
+        <v>0.1134282750770085</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1134289347585407</v>
+        <v>0.1134282750770085</v>
       </c>
       <c r="I9">
-        <v>0.1134289347585407</v>
+        <v>0.1134282750770085</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>70.69372341209601</v>
+        <v>70.69350655861327</v>
       </c>
       <c r="N9">
-        <v>77.55358200929639</v>
+        <v>77.55360177479754</v>
       </c>
       <c r="O9">
-        <v>77.55358200929639</v>
+        <v>77.55360177479754</v>
       </c>
       <c r="P9">
-        <v>77.55358200929639</v>
+        <v>77.55360177479754</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1430,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.1386904560552</v>
+        <v>14.13870128786038</v>
       </c>
       <c r="F13">
-        <v>98.9274083267441</v>
+        <v>98.92737860911433</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>98.9274083267441</v>
+        <v>98.92737860911433</v>
       </c>
       <c r="I13">
-        <v>98.9274083267441</v>
+        <v>98.92737860911433</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.1387446824192</v>
+        <v>14.13870131172265</v>
       </c>
       <c r="N13">
-        <v>15.15166515816746</v>
+        <v>15.15167111447185</v>
       </c>
       <c r="O13">
-        <v>15.15166515816746</v>
+        <v>15.15167111447185</v>
       </c>
       <c r="P13">
-        <v>15.15166515816746</v>
+        <v>15.15167111447185</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1580,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09702944186234982</v>
+        <v>0.09703118696345631</v>
       </c>
       <c r="F16">
-        <v>0.6789080816690368</v>
+        <v>0.6789195679427377</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.6789080816690368</v>
+        <v>0.6789195679427377</v>
       </c>
       <c r="I16">
-        <v>0.6789080816690368</v>
+        <v>0.6789195679427377</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.09702981400104603</v>
+        <v>0.09703118712721845</v>
       </c>
       <c r="N16">
-        <v>0.9454553686534142</v>
+        <v>0.9454525052790329</v>
       </c>
       <c r="O16">
-        <v>0.9454553686534142</v>
+        <v>0.9454525052790329</v>
       </c>
       <c r="P16">
-        <v>0.9454553686534142</v>
+        <v>0.9454525052790329</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1630,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.027333563488311</v>
+        <v>0.02733567727312219</v>
       </c>
       <c r="F17">
-        <v>0.1912509934804509</v>
+        <v>0.1912655794953821</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1912509934804509</v>
+        <v>0.1912655794953821</v>
       </c>
       <c r="I17">
-        <v>0.1912509934804509</v>
+        <v>0.1912655794953821</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0273336683211997</v>
+        <v>0.02733567731925735</v>
       </c>
       <c r="N17">
-        <v>0.8707660885316089</v>
+        <v>0.8707636481143284</v>
       </c>
       <c r="O17">
-        <v>0.8707660885316089</v>
+        <v>0.8707636481143284</v>
       </c>
       <c r="P17">
-        <v>0.8707660885316089</v>
+        <v>0.8707636481143284</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1680,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.007480804794502673</v>
+        <v>0.00748146074963037</v>
       </c>
       <c r="F18">
-        <v>0.0523426573923956</v>
+        <v>0.05234719123484041</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0523426573923956</v>
+        <v>0.05234719123484041</v>
       </c>
       <c r="I18">
-        <v>0.0523426573923956</v>
+        <v>0.05234719123484041</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1704,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00748083348576266</v>
+        <v>0.007481460762257032</v>
       </c>
       <c r="N18">
-        <v>2.532439359367785</v>
+        <v>2.532425975172416</v>
       </c>
       <c r="O18">
-        <v>2.532439359367785</v>
+        <v>2.532425975172416</v>
       </c>
       <c r="P18">
-        <v>2.532439359367785</v>
+        <v>2.532425975172416</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1880,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.002476130723804087</v>
+        <v>0.002476117827809099</v>
       </c>
       <c r="F22">
-        <v>0.01732531000275595</v>
+        <v>0.01732520129290586</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01732531000275595</v>
+        <v>0.01732520129290586</v>
       </c>
       <c r="I22">
-        <v>0.01732531000275595</v>
+        <v>0.01732520129290586</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1904,16 +1904,16 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.002476140220551069</v>
+        <v>0.002476117831988109</v>
       </c>
       <c r="N22">
-        <v>0.00265353454986085</v>
+        <v>0.002653519740165712</v>
       </c>
       <c r="O22">
-        <v>0.00265353454986085</v>
+        <v>0.002653519740165712</v>
       </c>
       <c r="P22">
-        <v>0.00265353454986085</v>
+        <v>0.002653519740165712</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1930,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0006741264581444877</v>
+        <v>0.0006741231166694147</v>
       </c>
       <c r="F23">
-        <v>0.004716814728775692</v>
+        <v>0.004716786318215189</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.004716814728775692</v>
+        <v>0.004716786318215189</v>
       </c>
       <c r="I23">
-        <v>0.004716814728775692</v>
+        <v>0.004716786318215189</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1954,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0006741290436333496</v>
+        <v>0.0006741231178071504</v>
       </c>
       <c r="N23">
-        <v>0.0007224246403734115</v>
+        <v>0.0007224207900344863</v>
       </c>
       <c r="O23">
-        <v>0.0007224246403734115</v>
+        <v>0.0007224207900344863</v>
       </c>
       <c r="P23">
-        <v>0.0007224246403734115</v>
+        <v>0.0007224207900344863</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1980,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.002089328326043745</v>
+        <v>0.002089317448659901</v>
       </c>
       <c r="F24">
-        <v>0.01461888122394263</v>
+        <v>0.01461878952458479</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.01461888122394263</v>
+        <v>0.01461878952458479</v>
       </c>
       <c r="I24">
-        <v>0.01461888122394263</v>
+        <v>0.01461878952458479</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.002089336339280803</v>
+        <v>0.002089317452186098</v>
       </c>
       <c r="N24">
-        <v>0.002239019469312424</v>
+        <v>0.002239006977465669</v>
       </c>
       <c r="O24">
-        <v>0.002239019469312424</v>
+        <v>0.002239006977465669</v>
       </c>
       <c r="P24">
-        <v>0.002239019469312424</v>
+        <v>0.002239006977465669</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>13.69037788634886</v>
+        <v>13.69030661200992</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>13.6904303932919</v>
+        <v>13.69030663511542</v>
       </c>
       <c r="N33">
-        <v>0.002934246594724591</v>
+        <v>0.002934230224094812</v>
       </c>
       <c r="O33">
-        <v>0.002934246594724591</v>
+        <v>0.002934230224094812</v>
       </c>
       <c r="P33">
-        <v>0.002934246594724591</v>
+        <v>0.002934230224094812</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.7069345228027604</v>
+        <v>0.7069350643930192</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2504,16 +2504,16 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.70693723412096</v>
+        <v>0.7069350655861325</v>
       </c>
       <c r="N34">
-        <v>0.7575832579083729</v>
+        <v>0.7575835557235925</v>
       </c>
       <c r="O34">
-        <v>0.7575832579083729</v>
+        <v>0.7575835557235925</v>
       </c>
       <c r="P34">
-        <v>0.7575832579083729</v>
+        <v>0.7575835557235925</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.02999515628825191</v>
+        <v>0.02999518128082793</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         <v>100</v>
       </c>
       <c r="M35">
-        <v>0.02994135097867156</v>
+        <v>0.02999528968397185</v>
       </c>
       <c r="N35">
-        <v>0.03214417670851931</v>
+        <v>0.03214419150196528</v>
       </c>
       <c r="O35">
-        <v>0.03214417670851931</v>
+        <v>0.03214419150196528</v>
       </c>
       <c r="P35">
-        <v>0.03214417670851931</v>
+        <v>0.03214419150196528</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.2499990411743544</v>
+        <v>0.2499999995780683</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2604,16 +2604,16 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.2496703886213241</v>
+        <v>0.2499997228747969</v>
       </c>
       <c r="N36">
-        <v>0.2679103679021761</v>
+        <v>0.2679112950407497</v>
       </c>
       <c r="O36">
-        <v>0.2679103679021761</v>
+        <v>0.2679112950407497</v>
       </c>
       <c r="P36">
-        <v>0.2679103679021761</v>
+        <v>0.2679112950407497</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2680,7 +2680,7 @@
         <v>100</v>
       </c>
       <c r="E38">
-        <v>0.3534672614013802</v>
+        <v>0.3534675321965096</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2704,16 +2704,16 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.35346861706048</v>
+        <v>0.3534675327930663</v>
       </c>
       <c r="N38">
-        <v>1.879904988210028</v>
+        <v>1.879896762166771</v>
       </c>
       <c r="O38">
-        <v>1.879904988210028</v>
+        <v>1.879896762166771</v>
       </c>
       <c r="P38">
-        <v>1.879904988210028</v>
+        <v>1.879896762166771</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2904,10 +2904,10 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
@@ -2921,10 +2921,10 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -2933,7 +2933,7 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2961,19 +2961,19 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>377.9081518565575</v>
+        <v>16.67526685185389</v>
       </c>
       <c r="C5">
-        <v>16.67524672677288</v>
+        <v>93.39059654922663</v>
       </c>
       <c r="D5">
-        <v>93.39013266106201</v>
+        <v>377.9103903406663</v>
       </c>
       <c r="E5">
-        <v>487.9735312443925</v>
+        <v>487.9762537417469</v>
       </c>
       <c r="F5">
-        <v>93.39013266106201</v>
+        <v>93.39059654922663</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3026,19 +3026,19 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>98.1152995794268</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>45.00000000000001</v>
+        <v>0.162090477870744</v>
       </c>
       <c r="D9">
-        <v>0.1620903373639028</v>
+        <v>98.11530000554812</v>
       </c>
       <c r="E9">
-        <v>77.55358200929639</v>
+        <v>77.55360177479754</v>
       </c>
       <c r="F9">
-        <v>0.1620903373639028</v>
+        <v>0.162090477870744</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3106,19 +3106,19 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>0.06645302799721764</v>
+        <v>0.00150752786337886</v>
       </c>
       <c r="C13">
-        <v>0.001507520679416089</v>
+        <v>78.89999155401671</v>
       </c>
       <c r="D13">
-        <v>78.89991225230187</v>
+        <v>0.06645303125008255</v>
       </c>
       <c r="E13">
-        <v>15.15166515816746</v>
+        <v>15.15167111447185</v>
       </c>
       <c r="F13">
-        <v>78.89991225230187</v>
+        <v>78.89999155401671</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3166,19 +3166,19 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>0.3925884356307704</v>
+        <v>0.008906079953193714</v>
       </c>
       <c r="C16">
-        <v>0.008906067985912975</v>
+        <v>3.349878075020719</v>
       </c>
       <c r="D16">
-        <v>3.349886170315947</v>
+        <v>0.3925871115369096</v>
       </c>
       <c r="E16">
-        <v>0.9454553686534142</v>
+        <v>0.9454525052790329</v>
       </c>
       <c r="F16">
-        <v>3.349886170315947</v>
+        <v>3.349878075020719</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3186,19 +3186,19 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0.04403145816418549</v>
+        <v>0.0009988775518683952</v>
       </c>
       <c r="C17">
-        <v>0.0009988759839526537</v>
+        <v>4.371483299781699</v>
       </c>
       <c r="D17">
-        <v>4.371492876109759</v>
+        <v>0.04403131960728125</v>
       </c>
       <c r="E17">
-        <v>0.8707660885316089</v>
+        <v>0.8707636481143284</v>
       </c>
       <c r="F17">
-        <v>4.371492876109759</v>
+        <v>4.371483299781699</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3206,19 +3206,19 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.01110691543751636</v>
+        <v>0.0002519657858643924</v>
       </c>
       <c r="C18">
-        <v>0.0002519660158643603</v>
+        <v>13.18721786809593</v>
       </c>
       <c r="D18">
-        <v>13.18727949387709</v>
+        <v>0.01110685291379595</v>
       </c>
       <c r="E18">
-        <v>2.532439359367785</v>
+        <v>2.532425975172416</v>
       </c>
       <c r="F18">
-        <v>13.18727949387709</v>
+        <v>13.18721786809593</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3289,16 +3289,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01386493576313449</v>
       </c>
       <c r="D22">
-        <v>0.01386500466033146</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.00265353454986085</v>
+        <v>0.002653519740165712</v>
       </c>
       <c r="F22">
-        <v>0.01386500466033146</v>
+        <v>0.01386493576313449</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3309,16 +3309,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.003774728974563991</v>
       </c>
       <c r="D23">
-        <v>0.003774746782943107</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0007224246403734115</v>
+        <v>0.0007224207900344863</v>
       </c>
       <c r="F23">
-        <v>0.003774746782943107</v>
+        <v>0.003774728974563991</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3329,16 +3329,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.0116990604764948</v>
       </c>
       <c r="D24">
-        <v>0.0116991185881554</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.002239019469312424</v>
+        <v>0.002239006977465669</v>
       </c>
       <c r="F24">
-        <v>0.0116991185881554</v>
+        <v>0.0116990604764948</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3506,16 +3506,16 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>0.003785054200789404</v>
+        <v>8.58657726494138e-05</v>
       </c>
       <c r="C33">
-        <v>8.586587627940257e-05</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.003785031780702802</v>
       </c>
       <c r="E33">
-        <v>0.002934246594724591</v>
+        <v>0.002934230224094812</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3526,16 +3526,16 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0.9772504117238147</v>
+        <v>0.02216952740263048</v>
       </c>
       <c r="C34">
-        <v>0.02216942175611955</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.9772504595600452</v>
       </c>
       <c r="E34">
-        <v>0.7575832579083729</v>
+        <v>0.7575835557235925</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3546,16 +3546,16 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.0414646305802112</v>
+        <v>0.0009406507426861623</v>
       </c>
       <c r="C35">
-        <v>0.0009406461969894641</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.04146463539256494</v>
       </c>
       <c r="E35">
-        <v>0.03214417670851931</v>
+        <v>0.03214419150196528</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3566,16 +3566,16 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.3455930613624332</v>
+        <v>0.0078400154702502</v>
       </c>
       <c r="C36">
-        <v>0.00783995406030851</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.3455941383915471</v>
       </c>
       <c r="E36">
-        <v>0.2679103679021761</v>
+        <v>0.2679112950407497</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3606,16 +3606,16 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0.00242742547625413</v>
+        <v>54.95729948945748</v>
       </c>
       <c r="C38">
-        <v>54.95729968144516</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.002427414018959431</v>
       </c>
       <c r="E38">
-        <v>1.879904988210028</v>
+        <v>1.879896762166771</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3696,10 +3696,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>78</v>
@@ -3725,16 +3725,16 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>85</v>
@@ -3754,10 +3754,10 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>85</v>
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
         <v>84</v>
@@ -3783,10 +3783,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
@@ -3812,28 +3812,28 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>4.242987081124284</v>
+        <v>93.39059654922663</v>
       </c>
       <c r="C5">
-        <v>93.39013266106201</v>
+        <v>4.242637875326086</v>
       </c>
       <c r="D5">
-        <v>93.39013266106201</v>
+        <v>93.39059654922663</v>
       </c>
       <c r="E5">
-        <v>97.6331197421863</v>
+        <v>97.63323442455273</v>
       </c>
       <c r="F5">
-        <v>97.6331197421863</v>
+        <v>97.63323442455271</v>
       </c>
       <c r="G5">
-        <v>97.6331197421863</v>
+        <v>97.63323442455271</v>
       </c>
       <c r="H5">
-        <v>97.6331197421863</v>
+        <v>97.63323442455273</v>
       </c>
       <c r="I5">
-        <v>97.6331197421863</v>
+        <v>97.63323442455273</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3904,28 +3904,28 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.162090477870744</v>
       </c>
       <c r="C9">
-        <v>0.1620903373639028</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1620903373639028</v>
+        <v>0.162090477870744</v>
       </c>
       <c r="E9">
-        <v>2.734204317405633</v>
+        <v>2.734205479633834</v>
       </c>
       <c r="F9">
-        <v>0.155046137514239</v>
+        <v>0.1550468599398483</v>
       </c>
       <c r="G9">
-        <v>0.155046137514239</v>
+        <v>0.1550468599398483</v>
       </c>
       <c r="H9">
-        <v>2.734204317405633</v>
+        <v>2.734205479633834</v>
       </c>
       <c r="I9">
-        <v>2.734204317405633</v>
+        <v>2.734205479633834</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4020,28 +4020,28 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>78.89999155401671</v>
       </c>
       <c r="C13">
-        <v>78.89991225230187</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>78.89991225230187</v>
+        <v>78.89999155401671</v>
       </c>
       <c r="E13">
-        <v>75.47104191329841</v>
+        <v>75.47140399873442</v>
       </c>
       <c r="F13">
-        <v>75.47104191329841</v>
+        <v>75.47140399873443</v>
       </c>
       <c r="G13">
-        <v>75.47104191329841</v>
+        <v>75.47140399873443</v>
       </c>
       <c r="H13">
-        <v>75.47104191329841</v>
+        <v>75.47140399873442</v>
       </c>
       <c r="I13">
-        <v>75.47104191329841</v>
+        <v>75.47140399873442</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4107,22 +4107,22 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3.349878075020719</v>
       </c>
       <c r="C16">
-        <v>3.349886170315947</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>3.349886170315947</v>
+        <v>3.349878075020719</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.204305205768054</v>
+        <v>3.204309614828099</v>
       </c>
       <c r="G16">
-        <v>3.204305205768054</v>
+        <v>3.204309614828099</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4136,22 +4136,22 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.371483299781699</v>
       </c>
       <c r="C17">
-        <v>4.371492876109759</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>4.371492876109759</v>
+        <v>4.371483299781699</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.181514435929422</v>
+        <v>4.181521134456311</v>
       </c>
       <c r="G17">
-        <v>4.181514435929422</v>
+        <v>4.181521134456311</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4165,22 +4165,22 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>13.18721786809593</v>
       </c>
       <c r="C18">
-        <v>13.18727949387709</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>13.18727949387709</v>
+        <v>13.18721786809593</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>12.61418035830252</v>
+        <v>12.61416925071559</v>
       </c>
       <c r="G18">
-        <v>12.61418035830252</v>
+        <v>12.61416925071559</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4281,28 +4281,28 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.01386493576313449</v>
       </c>
       <c r="C22">
-        <v>0.01386500466033146</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01386500466033146</v>
+        <v>0.01386493576313449</v>
       </c>
       <c r="E22">
-        <v>2.652590011388687</v>
+        <v>2.652593627446358</v>
       </c>
       <c r="F22">
-        <v>0.01326245261847455</v>
+        <v>0.01326243701407283</v>
       </c>
       <c r="G22">
-        <v>0.01326245261847455</v>
+        <v>0.01326243701407283</v>
       </c>
       <c r="H22">
-        <v>2.652590011388687</v>
+        <v>2.652593627446358</v>
       </c>
       <c r="I22">
-        <v>2.652590011388687</v>
+        <v>2.652593627446358</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4310,28 +4310,28 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003774728974563991</v>
       </c>
       <c r="C23">
-        <v>0.003774746782943107</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.003774746782943107</v>
+        <v>0.003774728974563991</v>
       </c>
       <c r="E23">
-        <v>3.606668894563887</v>
+        <v>3.606674663099084</v>
       </c>
       <c r="F23">
-        <v>0.003610702021525711</v>
+        <v>0.003610698680873869</v>
       </c>
       <c r="G23">
-        <v>0.003610702021525711</v>
+        <v>0.003610698680873869</v>
       </c>
       <c r="H23">
-        <v>3.606668894563887</v>
+        <v>3.606674663099084</v>
       </c>
       <c r="I23">
-        <v>3.606668894563887</v>
+        <v>3.606674663099084</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4339,28 +4339,28 @@
         <v>37</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0116990604764948</v>
       </c>
       <c r="C24">
-        <v>0.0116991185881554</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0116991185881554</v>
+        <v>0.0116990604764948</v>
       </c>
       <c r="E24">
-        <v>11.18964676146109</v>
+        <v>11.18963690497572</v>
       </c>
       <c r="F24">
-        <v>0.01119069266505508</v>
+        <v>0.01119067952019592</v>
       </c>
       <c r="G24">
-        <v>0.01119069266505508</v>
+        <v>0.01119067952019592</v>
       </c>
       <c r="H24">
-        <v>11.18964676146109</v>
+        <v>11.18963690497572</v>
       </c>
       <c r="I24">
-        <v>11.18964676146109</v>
+        <v>11.18963690497572</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4513,28 +4513,28 @@
         <v>43</v>
       </c>
       <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>100</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>4.345848101882309</v>
+        <v>4.345485326110585</v>
       </c>
       <c r="F30">
-        <v>4.345848101882309</v>
+        <v>4.345485326110586</v>
       </c>
       <c r="G30">
-        <v>4.345848101882309</v>
+        <v>4.345485326110586</v>
       </c>
       <c r="H30">
-        <v>4.345848101882309</v>
+        <v>4.345485326110585</v>
       </c>
       <c r="I30">
-        <v>4.345848101882309</v>
+        <v>4.345485326110585</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4880,7 +4880,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>92</v>
@@ -4960,10 +4960,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>117</v>
@@ -5011,7 +5011,7 @@
         <v>126</v>
       </c>
       <c r="S2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s">
         <v>124</v>
@@ -5049,16 +5049,16 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>116</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -5067,7 +5067,7 @@
         <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
         <v>120</v>
@@ -5076,7 +5076,7 @@
         <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
         <v>122</v>
@@ -5097,7 +5097,7 @@
         <v>120</v>
       </c>
       <c r="R3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
         <v>117</v>
@@ -5227,88 +5227,88 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>93.39013266106201</v>
+        <v>379.5519426571688</v>
       </c>
       <c r="C5">
-        <v>379.5496848408239</v>
+        <v>93.39059654922664</v>
       </c>
       <c r="D5">
-        <v>74.73741800893318</v>
+        <v>74.73786260729459</v>
       </c>
       <c r="E5">
-        <v>377.9081518565575</v>
+        <v>377.9103903406663</v>
       </c>
       <c r="F5">
-        <v>93.39013266106201</v>
+        <v>93.39059654922664</v>
       </c>
       <c r="G5">
-        <v>90.98759258337421</v>
+        <v>90.98805262820476</v>
       </c>
       <c r="H5">
-        <v>2.402540077687802</v>
+        <v>2.402543921021881</v>
       </c>
       <c r="I5">
-        <v>90.98759258337421</v>
+        <v>90.98805262820476</v>
       </c>
       <c r="J5">
-        <v>90.98759258337421</v>
+        <v>90.98805262820476</v>
       </c>
       <c r="K5">
-        <v>73.40290827721212</v>
+        <v>73.40332214149433</v>
       </c>
       <c r="L5">
-        <v>24.66040468559617</v>
+        <v>24.66046866628295</v>
       </c>
       <c r="M5">
-        <v>66.32718789777805</v>
+        <v>66.32758396192182</v>
       </c>
       <c r="N5">
-        <v>17.58468430609892</v>
+        <v>17.58470436608064</v>
       </c>
       <c r="O5">
-        <v>7.075720379497251</v>
+        <v>7.075764300202299</v>
       </c>
       <c r="P5">
-        <v>73.40290827727529</v>
+        <v>73.4033482621241</v>
       </c>
       <c r="Q5">
-        <v>73.40290827727529</v>
+        <v>73.4033482621241</v>
       </c>
       <c r="R5">
-        <v>0.573502638299479</v>
+        <v>0.5735488612807114</v>
       </c>
       <c r="S5">
-        <v>74.73741800893318</v>
+        <v>74.73786260729459</v>
       </c>
       <c r="T5">
-        <v>17.58468430609892</v>
+        <v>17.58470436608064</v>
       </c>
       <c r="U5">
-        <v>17.01118166786261</v>
+        <v>17.01239501694369</v>
       </c>
       <c r="V5">
-        <v>2.649642757125561</v>
+        <v>2.649543355507887</v>
       </c>
       <c r="W5">
-        <v>14.36153891073705</v>
+        <v>14.3628516614358</v>
       </c>
       <c r="X5">
-        <v>2.649642757125561</v>
+        <v>2.649543355507887</v>
       </c>
       <c r="Y5">
-        <v>3.53560413073683</v>
+        <v>3.535909733503717</v>
       </c>
       <c r="Z5">
-        <v>10.82593478000022</v>
+        <v>10.82694192793208</v>
       </c>
       <c r="AA5">
-        <v>3.53560413073683</v>
+        <v>3.535909733503717</v>
       </c>
       <c r="AB5">
-        <v>17.01118166786261</v>
+        <v>17.01239501694369</v>
       </c>
       <c r="AC5">
-        <v>10.82593478000022</v>
+        <v>10.82694192793208</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -5499,73 +5499,73 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>2.858427222602804</v>
+        <v>98.37124766534009</v>
       </c>
       <c r="C9">
-        <v>98.37124782399718</v>
+        <v>2.858417596864545</v>
       </c>
       <c r="D9">
-        <v>0.1134287585275641</v>
+        <v>0.1134287583294108</v>
       </c>
       <c r="E9">
-        <v>98.1152995794268</v>
+        <v>98.11530000554812</v>
       </c>
       <c r="F9">
-        <v>2.858427222602804</v>
+        <v>2.858417596864545</v>
       </c>
       <c r="G9">
-        <v>0.2933904392252767</v>
+        <v>0.293389425146612</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>0.2933904392252767</v>
+        <v>0.293389425146612</v>
       </c>
       <c r="J9">
-        <v>0.2933904392252767</v>
+        <v>0.293389425146612</v>
       </c>
       <c r="K9">
-        <v>3.636760111616424e-12</v>
+        <v>7.274055901649302e-12</v>
       </c>
       <c r="L9">
-        <v>1.082500068111692</v>
+        <v>1.082498991271419</v>
       </c>
       <c r="M9">
-        <v>4.024726169766453e-12</v>
+        <v>4.024702136783053e-12</v>
       </c>
       <c r="N9">
-        <v>1.518076144380605</v>
+        <v>1.518076841088322</v>
       </c>
       <c r="O9">
-        <v>3.772743333282646e-11</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>7.273520223226589e-12</v>
+        <v>3.636738312616576e-12</v>
       </c>
       <c r="Q9">
-        <v>7.273520223226589e-12</v>
+        <v>3.636738312616576e-12</v>
       </c>
       <c r="R9">
-        <v>46.08163779797828</v>
+        <v>46.0812707308487</v>
       </c>
       <c r="S9">
-        <v>0.1134287585275641</v>
+        <v>0.1134287583294108</v>
       </c>
       <c r="T9">
-        <v>1.518076144380605</v>
+        <v>1.518076841088322</v>
       </c>
       <c r="U9">
-        <v>0.01569255462261714</v>
+        <v>0.01569257509825157</v>
       </c>
       <c r="V9">
-        <v>0.1007490148625901</v>
+        <v>0.100760112435803</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.1007490148625901</v>
+        <v>0.100760112435803</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.01569255462261714</v>
+        <v>0.01569257509825157</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -5855,61 +5855,61 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>78.89991225230187</v>
+        <v>1.947989125826326e-05</v>
       </c>
       <c r="C13">
-        <v>1.947989079962681e-05</v>
+        <v>78.89999155401669</v>
       </c>
       <c r="D13">
-        <v>98.9274076703342</v>
+        <v>98.92740999506987</v>
       </c>
       <c r="E13">
-        <v>0.06645302799721764</v>
+        <v>0.06645303125008255</v>
       </c>
       <c r="F13">
-        <v>78.89991225230187</v>
+        <v>78.89999155401669</v>
       </c>
       <c r="G13">
-        <v>80.98327544425034</v>
+        <v>80.9833496389662</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>80.98327544425034</v>
+        <v>80.9833496389662</v>
       </c>
       <c r="J13">
-        <v>80.98327544425034</v>
+        <v>80.9833496389662</v>
       </c>
       <c r="K13">
-        <v>99.98511168873158</v>
+        <v>99.98511038836592</v>
       </c>
       <c r="L13">
-        <v>29.87977434325096</v>
+        <v>29.87987527192935</v>
       </c>
       <c r="M13">
-        <v>99.98352342617437</v>
+        <v>99.98352351971538</v>
       </c>
       <c r="N13">
-        <v>1.66481748004405</v>
+        <v>1.664816069949613</v>
       </c>
       <c r="O13">
-        <v>99.99999992301666</v>
+        <v>99.99999992391807</v>
       </c>
       <c r="P13">
-        <v>99.98511168864553</v>
+        <v>99.98511177359499</v>
       </c>
       <c r="Q13">
-        <v>99.98511168864553</v>
+        <v>99.98511177359499</v>
       </c>
       <c r="R13">
-        <v>51.04647800863718</v>
+        <v>51.047109923802</v>
       </c>
       <c r="S13">
-        <v>98.9274076703342</v>
+        <v>98.92740999506987</v>
       </c>
       <c r="T13">
-        <v>1.66481748004405</v>
+        <v>1.664816069949613</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -6122,16 +6122,16 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.2572050820539346</v>
       </c>
       <c r="C16">
-        <v>0.2572059560510501</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.678909332739564</v>
+        <v>0.6789070256848434</v>
       </c>
       <c r="E16">
-        <v>0.3925884356307704</v>
+        <v>0.3925871115369096</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.678909332739564</v>
+        <v>0.6789070256848434</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -6211,16 +6211,16 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.006181564826028452</v>
       </c>
       <c r="C17">
-        <v>0.006181584434551888</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1912513026970918</v>
+        <v>0.1912506960056799</v>
       </c>
       <c r="E17">
-        <v>0.04403145816418549</v>
+        <v>0.04403131960728125</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1912513026970918</v>
+        <v>0.1912506960056799</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -6300,16 +6300,16 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.000751999492267703</v>
       </c>
       <c r="C18">
-        <v>0.0007520037445305334</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05234287196161372</v>
+        <v>0.05234257597781188</v>
       </c>
       <c r="E18">
-        <v>0.01110691543751636</v>
+        <v>0.01110685291379595</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05234287196161372</v>
+        <v>0.05234257597781188</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -6656,85 +6656,85 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>2.773104939777199</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.773098202933468</v>
       </c>
       <c r="D22">
-        <v>0.01732603799534866</v>
+        <v>0.0173252830546992</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.773104939777199</v>
+        <v>2.773098202933468</v>
       </c>
       <c r="G22">
-        <v>2.846329162644111</v>
+        <v>2.846321994820506</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.846329162644111</v>
+        <v>2.846321994820506</v>
       </c>
       <c r="J22">
-        <v>2.846329162644111</v>
+        <v>2.846321994820506</v>
       </c>
       <c r="K22">
-        <v>2.095583563976868e-09</v>
+        <v>2.130770647997468e-09</v>
       </c>
       <c r="L22">
-        <v>10.50188110685322</v>
+        <v>10.50188051218245</v>
       </c>
       <c r="M22">
-        <v>2.319137898811393e-09</v>
+        <v>2.319127528799643e-09</v>
       </c>
       <c r="N22">
-        <v>14.72762510513792</v>
+        <v>14.72764568094048</v>
       </c>
       <c r="O22">
-        <v>3.660141067560982e-10</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>2.130865279327119e-09</v>
+        <v>2.095573696932219e-09</v>
       </c>
       <c r="Q22">
-        <v>2.130865279327119e-09</v>
+        <v>2.095573696932219e-09</v>
       </c>
       <c r="R22">
-        <v>2.257885323971105</v>
+        <v>2.257618409837998</v>
       </c>
       <c r="S22">
-        <v>0.01732603799534866</v>
+        <v>0.0173252830546992</v>
       </c>
       <c r="T22">
-        <v>14.72762510513792</v>
+        <v>14.72764568094048</v>
       </c>
       <c r="U22">
-        <v>15.1480208662729</v>
+        <v>15.14637056740009</v>
       </c>
       <c r="V22">
-        <v>97.25291290571454</v>
+        <v>97.25290210211477</v>
       </c>
       <c r="W22">
-        <v>1.800466886328939e-05</v>
+        <v>1.800457935996281e-05</v>
       </c>
       <c r="X22">
-        <v>97.25291290571454</v>
+        <v>97.25290210211477</v>
       </c>
       <c r="Y22">
-        <v>7.313453172179056e-05</v>
+        <v>7.313453172274615e-05</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>7.313453172179056e-05</v>
+        <v>7.313453172274615e-05</v>
       </c>
       <c r="AB22">
-        <v>15.1480208662729</v>
+        <v>15.14637056740009</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -6745,88 +6745,88 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>3.770530419218384</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3.770522149838045</v>
       </c>
       <c r="D23">
-        <v>0.004716439406022134</v>
+        <v>0.004716807392168674</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.770530419218384</v>
+        <v>3.770522149838045</v>
       </c>
       <c r="G23">
-        <v>3.870091801040991</v>
+        <v>3.870082969181965</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.870091801040991</v>
+        <v>3.870082969181965</v>
       </c>
       <c r="J23">
-        <v>3.870091801040991</v>
+        <v>3.870082969181965</v>
       </c>
       <c r="K23">
-        <v>4.966177618040111e-06</v>
+        <v>4.966606722132049e-06</v>
       </c>
       <c r="L23">
-        <v>14.2791643531799</v>
+        <v>14.27916691723638</v>
       </c>
       <c r="M23">
-        <v>5.495963732880429e-06</v>
+        <v>5.495938400685397e-06</v>
       </c>
       <c r="N23">
-        <v>20.02481053332897</v>
+        <v>20.02484323946677</v>
       </c>
       <c r="O23">
-        <v>4.976577052841956e-10</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>4.966224759104772e-06</v>
+        <v>4.966153783874577e-06</v>
       </c>
       <c r="Q23">
-        <v>4.966224759104772e-06</v>
+        <v>4.966153783874577e-06</v>
       </c>
       <c r="R23">
-        <v>0.6139988694134231</v>
+        <v>0.6140009355113025</v>
       </c>
       <c r="S23">
-        <v>0.004716439406022134</v>
+        <v>0.004716807392168674</v>
       </c>
       <c r="T23">
-        <v>20.02481053332897</v>
+        <v>20.02484323946677</v>
       </c>
       <c r="U23">
-        <v>20.6792125566767</v>
+        <v>20.67947384833289</v>
       </c>
       <c r="V23">
-        <v>2.646337766141893</v>
+        <v>2.646337472166383</v>
       </c>
       <c r="W23">
-        <v>24.00620114584318</v>
+        <v>24.00608180827775</v>
       </c>
       <c r="X23">
-        <v>2.646337766141893</v>
+        <v>2.646337472166383</v>
       </c>
       <c r="Y23">
         <v>97.51236649568051</v>
       </c>
       <c r="Z23">
-        <v>8.000001600007326e-05</v>
+        <v>8.000001599665251e-05</v>
       </c>
       <c r="AA23">
         <v>97.51236649568051</v>
       </c>
       <c r="AB23">
-        <v>20.6792125566767</v>
+        <v>20.67947384833289</v>
       </c>
       <c r="AC23">
-        <v>8.000001600007326e-05</v>
+        <v>8.000001599665251e-05</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -6834,85 +6834,85 @@
         <v>37</v>
       </c>
       <c r="B24">
-        <v>11.69802516609975</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>11.69797049634723</v>
       </c>
       <c r="D24">
-        <v>0.01461758633859379</v>
+        <v>0.01461885848550732</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>11.69802516609975</v>
+        <v>11.69797049634723</v>
       </c>
       <c r="G24">
-        <v>12.00691315283928</v>
+        <v>12.00685597188471</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.00691315283928</v>
+        <v>12.00685597188471</v>
       </c>
       <c r="J24">
-        <v>12.00691315283928</v>
+        <v>12.00685597188471</v>
       </c>
       <c r="K24">
-        <v>0.01488334299157892</v>
+        <v>0.01488464288931278</v>
       </c>
       <c r="L24">
-        <v>44.25668012860423</v>
+        <v>44.25657830738039</v>
       </c>
       <c r="M24">
-        <v>0.01647107553871112</v>
+        <v>0.01647098202304976</v>
       </c>
       <c r="N24">
-        <v>62.06467073710846</v>
+        <v>62.06461816855479</v>
       </c>
       <c r="O24">
-        <v>7.608194476337049e-08</v>
+        <v>7.608193830158537e-08</v>
       </c>
       <c r="P24">
-        <v>0.01488334299156611</v>
+        <v>0.01488325815200882</v>
       </c>
       <c r="Q24">
-        <v>0.01488334299156611</v>
+        <v>0.01488325815200882</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0.01461758633859379</v>
+        <v>0.01461885848550732</v>
       </c>
       <c r="T24">
-        <v>62.06467073710846</v>
+        <v>62.06461816855479</v>
       </c>
       <c r="U24">
-        <v>64.15707402242778</v>
+        <v>64.15846300916878</v>
       </c>
       <c r="V24">
-        <v>3.132809757063921e-07</v>
+        <v>3.132830457352938e-07</v>
       </c>
       <c r="W24">
-        <v>75.99378084948795</v>
+        <v>75.99390018714288</v>
       </c>
       <c r="X24">
-        <v>3.132809757063921e-07</v>
+        <v>3.132830457352938e-07</v>
       </c>
       <c r="Y24">
-        <v>2.487560369787771</v>
+        <v>2.48756036978777</v>
       </c>
       <c r="Z24">
         <v>99.999919999984</v>
       </c>
       <c r="AA24">
-        <v>2.487560369787771</v>
+        <v>2.48756036978777</v>
       </c>
       <c r="AB24">
-        <v>64.15707402242778</v>
+        <v>64.15846300916878</v>
       </c>
       <c r="AC24">
         <v>99.999919999984</v>
@@ -7635,16 +7635,16 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.00376866161633439</v>
       </c>
       <c r="C33">
-        <v>0.003768684034863861</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.003785054200789404</v>
+        <v>0.003785031780702802</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -7724,16 +7724,16 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.9730238766463519</v>
       </c>
       <c r="C34">
-        <v>0.9730238536503829</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.9772504117238147</v>
+        <v>0.9772504595600452</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -7813,16 +7813,16 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.04128530191898271</v>
       </c>
       <c r="C35">
-        <v>0.04128529817263357</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.0414646305802112</v>
+        <v>0.04146463539256494</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -7902,16 +7902,16 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.3440994526985305</v>
       </c>
       <c r="C36">
-        <v>0.3440983890388402</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.3455930613624332</v>
+        <v>0.3455941383915471</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -8080,16 +8080,16 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.002416915516230036</v>
       </c>
       <c r="C38">
-        <v>0.002416926985159899</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.00242742547625413</v>
+        <v>0.002427414018959431</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -8461,28 +8461,28 @@
         <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>147</v>
@@ -8556,19 +8556,19 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
         <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
         <v>54</v>
@@ -8577,37 +8577,37 @@
         <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" t="s">
         <v>54</v>
       </c>
-      <c r="N2" t="s">
-        <v>84</v>
-      </c>
       <c r="O2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T2" t="s">
         <v>54</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>54</v>
-      </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
-        <v>133</v>
-      </c>
-      <c r="U2" t="s">
-        <v>160</v>
-      </c>
-      <c r="V2" t="s">
-        <v>135</v>
       </c>
       <c r="W2" t="s">
         <v>160</v>
@@ -8648,67 +8648,67 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
       </c>
       <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
         <v>158</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="N3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" t="s">
-        <v>160</v>
-      </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="s">
         <v>54</v>
       </c>
       <c r="R3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" t="s">
         <v>160</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" t="s">
         <v>160</v>
-      </c>
-      <c r="T3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>54</v>
       </c>
       <c r="W3" t="s">
         <v>54</v>
@@ -8717,7 +8717,7 @@
         <v>54</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Z3" t="s">
         <v>55</v>
@@ -8764,7 +8764,7 @@
         <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -8779,7 +8779,7 @@
         <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
         <v>56</v>
@@ -8788,7 +8788,7 @@
         <v>56</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
         <v>56</v>
@@ -8806,7 +8806,7 @@
         <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
         <v>56</v>
@@ -8850,100 +8850,100 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>1222.941477603761</v>
+        <v>0.1568560214868631</v>
       </c>
       <c r="C5">
-        <v>1222.941477603761</v>
+        <v>607.716760736527</v>
       </c>
       <c r="D5">
-        <v>13.45235625364137</v>
+        <v>3.696827854183506</v>
       </c>
       <c r="E5">
-        <v>13.45235625364137</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.307331682822092</v>
+        <v>607.716760736527</v>
       </c>
       <c r="G5">
-        <v>607.716760736527</v>
+        <v>4.242637875326086</v>
       </c>
       <c r="H5">
-        <v>0.1568550741739992</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>607.716760736527</v>
+        <v>93.39059654922664</v>
       </c>
       <c r="J5">
-        <v>3.6968057757318</v>
+        <v>1.598952227043345</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.317698134381953</v>
       </c>
       <c r="L5">
-        <v>4.242987081124284</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.649543355507887</v>
       </c>
       <c r="N5">
-        <v>93.39013266106201</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.634290625972899</v>
+        <v>11.56360668736713</v>
       </c>
       <c r="P5">
-        <v>2.37782265381358</v>
+        <v>3.535909733503717</v>
       </c>
       <c r="Q5">
-        <v>2.649642757125561</v>
+        <v>1.598952227043345</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>10.82694192793208</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3.53560413073683</v>
+        <v>13.26356684185307</v>
       </c>
       <c r="U5">
-        <v>11.86358375714188</v>
+        <v>71.59173361848406</v>
       </c>
       <c r="V5">
-        <v>10.82593478000022</v>
+        <v>1205.778803804825</v>
       </c>
       <c r="W5">
-        <v>1.634290625972899</v>
+        <v>1205.778803804825</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>13.26356684185307</v>
       </c>
       <c r="Y5">
-        <v>71.59173361848406</v>
+        <v>1.307343500890849</v>
       </c>
       <c r="Z5">
         <v>71.59173361848406</v>
       </c>
       <c r="AA5">
-        <v>1.307331682822092</v>
+        <v>1.307343500890849</v>
       </c>
       <c r="AB5">
-        <v>3.6968057757318</v>
+        <v>3.696827854183506</v>
       </c>
       <c r="AC5">
-        <v>0.1568550741739992</v>
+        <v>0.1568560214868631</v>
       </c>
       <c r="AD5">
-        <v>97.6331197421863</v>
+        <v>97.63323442455273</v>
       </c>
       <c r="AE5">
-        <v>2.649642757125561</v>
+        <v>2.649543355507887</v>
       </c>
       <c r="AF5">
-        <v>3.53560413073683</v>
+        <v>3.535909733503717</v>
       </c>
       <c r="AG5">
-        <v>10.82593478000022</v>
+        <v>10.82694192793208</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -9158,73 +9158,73 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="E9">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2.858417596864545</v>
+      </c>
+      <c r="J9">
         <v>100</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.100760112435803</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>45.01565840905166</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>100</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>100</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>2.858427222602804</v>
-      </c>
-      <c r="O9">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>100</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0.1007490148625901</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>45.01565840905167</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
       </c>
       <c r="W9">
         <v>100</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>2.734204317405633</v>
+        <v>2.734205479633834</v>
       </c>
       <c r="AE9">
-        <v>0.1007490148625901</v>
+        <v>0.100760112435803</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>78.89999155401669</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>78.89991225230187</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>75.47104191329841</v>
+        <v>75.47140399873442</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.773098202933468</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -10504,19 +10504,19 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>97.25290210211477</v>
       </c>
       <c r="N22">
-        <v>2.773104939777199</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.313453172274615e-05</v>
       </c>
       <c r="Q22">
-        <v>97.25291290571454</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>7.313453172179056e-05</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -10555,13 +10555,13 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>2.652590011388687</v>
+        <v>2.652593627446358</v>
       </c>
       <c r="AE22">
-        <v>97.25291290571454</v>
+        <v>97.25290210211477</v>
       </c>
       <c r="AF22">
-        <v>7.313453172179056e-05</v>
+        <v>7.313453172274615e-05</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.770522149838045</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -10605,34 +10605,34 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.646337472166383</v>
       </c>
       <c r="N23">
-        <v>3.770530419218384</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="Q23">
-        <v>2.646337766141893</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>8.000001599665251e-05</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>97.51236649568051</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23">
-        <v>8.000001600007326e-05</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -10656,16 +10656,16 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>3.606668894563887</v>
+        <v>3.606674663099084</v>
       </c>
       <c r="AE23">
-        <v>2.646337766141893</v>
+        <v>2.646337472166383</v>
       </c>
       <c r="AF23">
         <v>97.51236649568051</v>
       </c>
       <c r="AG23">
-        <v>8.000001600007326e-05</v>
+        <v>8.000001599665251e-05</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.69797049634723</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -10706,34 +10706,34 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.132830457352938e-07</v>
       </c>
       <c r="N24">
-        <v>11.69802516609975</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2.48756036978777</v>
       </c>
       <c r="Q24">
-        <v>3.132809757063921e-07</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>99.999919999984</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2.487560369787771</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>99.999919999984</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -10757,13 +10757,13 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>11.18964676146109</v>
+        <v>11.18963690497572</v>
       </c>
       <c r="AE24">
-        <v>3.132809757063921e-07</v>
+        <v>3.132830457352938e-07</v>
       </c>
       <c r="AF24">
-        <v>2.487560369787771</v>
+        <v>2.48756036978777</v>
       </c>
       <c r="AG24">
         <v>99.999919999984</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>4.345848101882309</v>
+        <v>4.345485326110585</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -11520,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>54.98434159094833</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -11538,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>54.98434159094833</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>100</v>
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -11784,7 +11784,7 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -11897,64 +11897,64 @@
         <v>0</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
         <v>100</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>

--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/733a0933307f0df0/Code/Bioindustrial-Park/BioSTEAM 2.x.x/biorefineries/LAOs/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D50878EB-B1F2-4580-AB5B-2CDB1F4FEC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{D50878EB-B1F2-4580-AB5B-2CDB1F4FEC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B787ECA-FAD3-4525-B78E-FD8D99ADE6B3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="960" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fermentation" sheetId="1" r:id="rId1"/>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A21:P109"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="56" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="56" workbookViewId="0">
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1443,7 +1443,7 @@
         <v>17.574962996697391</v>
       </c>
       <c r="C29" s="2">
-        <v>4398.4640604850247</v>
+        <v>4398.4640604850201</v>
       </c>
       <c r="D29" s="2">
         <v>3514.200843590148</v>
@@ -3466,7 +3466,7 @@
         <v>1.848541592234775</v>
       </c>
       <c r="C73" s="2">
-        <v>522.96848245247088</v>
+        <v>522.96848245247099</v>
       </c>
       <c r="D73" s="2">
         <v>369.62353845023648</v>
@@ -3499,7 +3499,7 @@
         <v>522.96847725506507</v>
       </c>
       <c r="N73" s="2">
-        <v>488.00733495530272</v>
+        <v>488.00733495530301</v>
       </c>
       <c r="O73" s="2">
         <v>488.00733495530272</v>
@@ -16564,7 +16564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A62:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+    <sheetView zoomScale="50" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>

--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/733a0933307f0df0/Code/Bioindustrial-Park/BioSTEAM 2.x.x/biorefineries/LAOs/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D50878EB-B1F2-4580-AB5B-2CDB1F4FEC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B787ECA-FAD3-4525-B78E-FD8D99ADE6B3}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{D50878EB-B1F2-4580-AB5B-2CDB1F4FEC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62C15604-8815-46FF-B85B-002954479FCB}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="960" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fermentation" sheetId="1" r:id="rId1"/>
@@ -503,40 +503,40 @@
     <t xml:space="preserve">Figure S5. Process flow diagram of the Dehydration area. </t>
   </si>
   <si>
-    <t>Figure S40. Stream tables of the fermentation area at the present-day fermentation performance.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Figure S6. Process flow diagram of the Separation area. </t>
   </si>
   <si>
     <t xml:space="preserve">Figure S7. Process flow diagram of the outside boundary limits (OSBL) area. </t>
   </si>
   <si>
-    <t>Table S42. Stream tables of the 3-Phase Decanter area at the present-day fermentation performance.</t>
+    <t>Figure S43. Stream tables of the fermentation area at the target fermentation performance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Table S44. Stream tables of the Dehydration area at the present-day fermentation performance. </t>
+    <t>Table S45. Stream tables of the 3-Phase Decanter area at the target fermentation performance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Table S46. Stream tables of the Separation area at the present-day fermentation performance. </t>
+    <t xml:space="preserve">Table S47. Stream tables of the Dehydration area at the target fermentation performance. </t>
   </si>
   <si>
-    <t xml:space="preserve">Table S48. Stream tables of the OSBL area at the present-day fermentation performance. </t>
+    <t xml:space="preserve">Table S49. Stream tables of the Separation area at the target fermentation performance. </t>
   </si>
   <si>
-    <t>Figure S41. Stream tables of the fermentation area at the target fermentation performance.</t>
+    <t xml:space="preserve">Table S51. Stream tables of the OSBL area at the target fermentation performance. </t>
   </si>
   <si>
-    <t>Table S43. Stream tables of the 3-Phase Decanter area at the target fermentation performance.</t>
+    <t>Figure S42. Stream tables of the fermentation area at the baseline fermentation performance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Table S45. Stream tables of the Dehydration area at the target fermentation performance. </t>
+    <t>Table S44. Stream tables of the 3-Phase Decanter area at the baseline fermentation performance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Table S47. Stream tables of the Separation area at the target fermentation performance. </t>
+    <t xml:space="preserve">Table S46. Stream tables of the Dehydration area at the baseline fermentation performance. </t>
   </si>
   <si>
-    <t xml:space="preserve">Table S49. Stream tables of the OSBL area at the target fermentation performance. </t>
+    <t xml:space="preserve">Table S48. Stream tables of the Separation area at the baseline fermentation performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S50. Stream tables of the OSBL area at the baseline fermentation performance. </t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A21:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="56" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -3257,7 +3257,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -5289,8 +5289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A13:F101"/>
   <sheetViews>
-    <sheetView zoomScale="46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A4" zoomScale="46" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6123,7 +6123,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -6944,8 +6944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A17:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="61" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A25" zoomScale="61" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -8139,7 +8139,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -9323,8 +9323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A24:AC112"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A37" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9359,12 +9359,12 @@
   <sheetData>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
@@ -12960,7 +12960,7 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
@@ -16564,8 +16564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A62:AB150"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="50" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16596,12 +16596,12 @@
   <sheetData>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.3">
@@ -20076,7 +20076,7 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.3">
